--- a/financial_models/Model_templates/Listed_template/Bank_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Bank_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE7C50-E52E-412A-8303-E49A83B88800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FC7E2-38C1-4E06-B0F1-22E63CF65905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="338">
   <si>
     <t>Company Info:</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Sales Growth Rate</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>Financial Leverage</t>
-  </si>
-  <si>
-    <t>Interes Expense / EBIT</t>
   </si>
   <si>
     <t>NOPAT</t>
@@ -882,9 +876,6 @@
     <t>Value @</t>
   </si>
   <si>
-    <t>PP&amp;E</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
@@ -1163,10 +1154,37 @@
     <t>Revenue Growth rate</t>
   </si>
   <si>
-    <t>Total Asset / Equity</t>
-  </si>
-  <si>
     <t>Bank Risk Indicators</t>
+  </si>
+  <si>
+    <t>Credit impairment losses</t>
+  </si>
+  <si>
+    <t>Impair. losses on other assets</t>
+  </si>
+  <si>
+    <t>Customer Deposit</t>
+  </si>
+  <si>
+    <t>Total Asset / Common Equity</t>
+  </si>
+  <si>
+    <t>Net Interest Income/ Sales</t>
+  </si>
+  <si>
+    <t>Net Interest Income / Loan</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Credit impairment losses %</t>
+  </si>
+  <si>
+    <t>Liquidity ratio (&gt;=25%)</t>
+  </si>
+  <si>
+    <t>Loan migration ratio</t>
   </si>
 </sst>
 </file>
@@ -1186,19 +1204,19 @@
     <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
     <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
     <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="173" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="175" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="183" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="185" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1916,7 +1934,7 @@
     <xf numFmtId="8" fontId="36" fillId="0" borderId="9" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="36" fillId="0" borderId="9" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1961,7 +1979,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2061,7 +2079,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2072,7 +2090,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2120,16 +2138,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2157,14 +2175,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,7 +2282,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2292,7 +2310,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2302,7 +2320,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2320,7 +2338,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2329,7 +2347,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,7 +2383,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2443,7 +2461,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2541,19 +2559,176 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,183 +2748,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2760,7 +2766,22 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{6E8B5EC0-4175-45C1-9BCC-7476D05CBEAC}"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{CBC32539-64A2-4336-9F96-B2D4C540D867}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2768,13 +2789,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5283,10 +5297,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>0</c:v>
+                  <c:v>78677</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>0</c:v>
+                  <c:v>87681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5369,10 +5383,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>246343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>58526</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5467,16 +5481,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>-1081638</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="#,##0">
-                  <c:v>-717056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>-12991790</c:v>
+                  <c:v>241936</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>-13458</c:v>
+                  <c:v>259140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9911,7 +9925,7 @@
   <dimension ref="A1:L969"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:J22"/>
+      <selection activeCell="C24" sqref="C24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9955,27 +9969,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="284" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="285"/>
+      <c r="C3" s="310" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="311"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="296" t="s">
+      <c r="I3" s="319" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="296"/>
+      <c r="J3" s="319"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="286" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="287"/>
+      <c r="C4" s="312" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="281"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -9992,10 +10006,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="288">
+      <c r="C5" s="313">
         <v>45191</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10003,16 +10017,16 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="297">
+      <c r="I5" s="280">
         <v>2017360000</v>
       </c>
-      <c r="J5" s="297"/>
+      <c r="J5" s="280"/>
       <c r="K5" s="89"/>
       <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="198">
         <v>8</v>
@@ -10029,11 +10043,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="298">
+      <c r="I6" s="320">
         <f>I4*I5/1000000</f>
         <v>3651.4216000000001</v>
       </c>
-      <c r="J6" s="298"/>
+      <c r="J6" s="320"/>
       <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10041,12 +10055,12 @@
         <v>10</v>
       </c>
       <c r="C7" s="197">
+        <f>(Data!C35*Exchange_Rate)/I4</f>
+        <v>25.982227424721653</v>
+      </c>
+      <c r="D7" s="197">
         <f>(Data!C36*Exchange_Rate)/I4</f>
         <v>0</v>
-      </c>
-      <c r="D7" s="197">
-        <f>(Data!C37*Exchange_Rate)/I4</f>
-        <v>17.342820477175895</v>
       </c>
       <c r="E7" s="91"/>
       <c r="F7" s="6"/>
@@ -10071,67 +10085,67 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="204" t="str">
+      <c r="I9" s="204">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>NNI</v>
-      </c>
-      <c r="J9" s="152" t="str">
+        <v>1.3022508812180599E-2</v>
+      </c>
+      <c r="J9" s="152">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>NNI</v>
+        <v>76.790118895112613</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="117">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="151">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>3.3893872779632418E-4</v>
+        <v>1.2618114647037766E-3</v>
       </c>
       <c r="J10" s="202">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.6514314364731451E-3</v>
+        <v>4.6514921917032012E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="309">
+        <v>166</v>
+      </c>
+      <c r="C11" s="290">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="310"/>
+      <c r="D11" s="291"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="296" t="s">
-        <v>276</v>
-      </c>
-      <c r="J11" s="296"/>
+      <c r="I11" s="319" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="319"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="307">
+        <v>278</v>
+      </c>
+      <c r="C12" s="326">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="308"/>
+      <c r="D12" s="327"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10151,7 +10165,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="153" t="e">
@@ -10161,7 +10175,7 @@
       <c r="F14" s="96"/>
       <c r="G14" s="97"/>
       <c r="H14" s="128" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I14" s="219">
         <v>0.25</v>
@@ -10175,7 +10189,7 @@
         <v>(in HKD)</v>
       </c>
       <c r="C15" s="210" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>17</v>
@@ -10189,7 +10203,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J15" s="55" t="s">
         <v>18</v>
@@ -10200,28 +10214,28 @@
         <f>I4</f>
         <v>1.81</v>
       </c>
-      <c r="C16" s="321">
+      <c r="C16" s="306">
         <v>0.2</v>
       </c>
       <c r="D16" s="217" t="e">
         <f>I37/B16-(1+C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="302" t="s">
+      <c r="E16" s="300" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="299" t="e">
+      <c r="F16" s="321" t="e">
         <f>(Val_Models!#REF!)*Exchange_Rate</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="302" t="s">
+      <c r="G16" s="300" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="218" t="e">
         <f>B16-$F$16</f>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="315">
+      <c r="I16" s="295">
         <v>0</v>
       </c>
       <c r="J16" s="152">
@@ -10234,19 +10248,19 @@
         <f>MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>#REF!</v>
       </c>
-      <c r="C17" s="322"/>
+      <c r="C17" s="307"/>
       <c r="D17" s="136" t="e">
         <f>I37/B17-(1+C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="303"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="303"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="301"/>
       <c r="H17" s="215" t="e">
         <f>B17-$F$16</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="316"/>
+      <c r="I17" s="296"/>
       <c r="J17" s="136" t="e">
         <f>I16/B17</f>
         <v>#REF!</v>
@@ -10257,19 +10271,19 @@
         <f>C37</f>
         <v>1.8</v>
       </c>
-      <c r="C18" s="323"/>
+      <c r="C18" s="308"/>
       <c r="D18" s="216" t="e">
         <f>I37/B18-(1+C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="304"/>
-      <c r="F18" s="301"/>
-      <c r="G18" s="304"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="323"/>
+      <c r="G18" s="302"/>
       <c r="H18" s="96" t="e">
         <f>B18-$F$16</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="317"/>
+      <c r="I18" s="297"/>
       <c r="J18" s="144">
         <f>I16/B18</f>
         <v>0</v>
@@ -10285,13 +10299,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="172" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E20" s="105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10307,72 +10321,72 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="291" t="s">
-        <v>321</v>
-      </c>
-      <c r="D21" s="292"/>
-      <c r="E21" s="293"/>
-      <c r="F21" s="293"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="293"/>
+      <c r="C21" s="316" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="317"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="318"/>
+      <c r="J21" s="318"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="306"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="285"/>
-      <c r="F22" s="285"/>
-      <c r="G22" s="306"/>
-      <c r="H22" s="306"/>
-      <c r="I22" s="285"/>
-      <c r="J22" s="285"/>
+      <c r="C22" s="325"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
+      <c r="F22" s="311"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="311"/>
+      <c r="J22" s="311"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="295"/>
-      <c r="F23" s="295"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="295"/>
-      <c r="J23" s="295"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="298"/>
+      <c r="I23" s="299"/>
+      <c r="J23" s="299"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="269"/>
-      <c r="D24" s="269"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="269"/>
-      <c r="H24" s="269"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="269"/>
+        <v>216</v>
+      </c>
+      <c r="C24" s="328"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="131" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="270"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="270"/>
+        <v>215</v>
+      </c>
+      <c r="C25" s="329"/>
+      <c r="D25" s="329"/>
+      <c r="E25" s="329"/>
+      <c r="F25" s="329"/>
+      <c r="G25" s="329"/>
+      <c r="H25" s="329"/>
+      <c r="I25" s="329"/>
+      <c r="J25" s="329"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10400,7 +10414,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="208" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="54">
@@ -10412,214 +10426,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="289">
+      <c r="C28" s="314">
         <v>45180</v>
       </c>
-      <c r="D28" s="290"/>
-      <c r="E28" s="320" t="str">
+      <c r="D28" s="315"/>
+      <c r="E28" s="305" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="320"/>
-      <c r="I28" s="305" t="s">
+      <c r="F28" s="305"/>
+      <c r="G28" s="305"/>
+      <c r="H28" s="305"/>
+      <c r="I28" s="324" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="305"/>
+      <c r="J28" s="324"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="314">
+      <c r="C29" s="294">
         <f>C33/D27</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="D29" s="313"/>
-      <c r="E29" s="312">
+      <c r="D29" s="288"/>
+      <c r="E29" s="293">
         <f>E33/D27</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F29" s="313"/>
-      <c r="G29" s="319">
+      <c r="F29" s="288"/>
+      <c r="G29" s="304">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="319"/>
-      <c r="I29" s="318">
+      <c r="H29" s="304"/>
+      <c r="I29" s="303">
         <f>C29+E29+G29</f>
         <v>0.15454545454545454</v>
       </c>
-      <c r="J29" s="318"/>
+      <c r="J29" s="303"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="297">
+      <c r="C30" s="280">
         <v>30000</v>
       </c>
-      <c r="D30" s="287"/>
-      <c r="E30" s="297">
+      <c r="D30" s="281"/>
+      <c r="E30" s="280">
         <v>30000</v>
       </c>
-      <c r="F30" s="287"/>
-      <c r="G30" s="297"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="324">
+      <c r="F30" s="281"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="309">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="324"/>
+      <c r="J30" s="309"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="311">
+      <c r="C31" s="282">
         <v>1.8</v>
       </c>
-      <c r="D31" s="287"/>
-      <c r="E31" s="311">
+      <c r="D31" s="281"/>
+      <c r="E31" s="282">
         <v>1.6</v>
       </c>
-      <c r="F31" s="287"/>
-      <c r="G31" s="311"/>
-      <c r="H31" s="311"/>
-      <c r="I31" s="278"/>
-      <c r="J31" s="278"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="282"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="292"/>
+      <c r="J31" s="292"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="276">
+      <c r="C32" s="289">
         <f>C31*$I$5/1000000</f>
         <v>3631.248</v>
       </c>
-      <c r="D32" s="313"/>
-      <c r="E32" s="276">
+      <c r="D32" s="288"/>
+      <c r="E32" s="289">
         <f>E31*$I$5/1000000</f>
         <v>3227.7759999999998</v>
       </c>
-      <c r="F32" s="313"/>
-      <c r="G32" s="276">
+      <c r="F32" s="288"/>
+      <c r="G32" s="289">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="276"/>
-      <c r="I32" s="278"/>
-      <c r="J32" s="278"/>
+      <c r="H32" s="289"/>
+      <c r="I32" s="292"/>
+      <c r="J32" s="292"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="277">
+      <c r="C33" s="285">
         <f>C30*C31</f>
         <v>54000</v>
       </c>
-      <c r="D33" s="326"/>
-      <c r="E33" s="277">
+      <c r="D33" s="286"/>
+      <c r="E33" s="285">
         <f>E30*E31</f>
         <v>48000</v>
       </c>
-      <c r="F33" s="326"/>
-      <c r="G33" s="277">
+      <c r="F33" s="286"/>
+      <c r="G33" s="285">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="277"/>
-      <c r="I33" s="277">
+      <c r="H33" s="285"/>
+      <c r="I33" s="285">
         <f>C33+E33+G33</f>
         <v>102000</v>
       </c>
-      <c r="J33" s="277"/>
+      <c r="J33" s="285"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="278"/>
-      <c r="D34" s="281"/>
-      <c r="E34" s="280">
+      <c r="C34" s="292"/>
+      <c r="D34" s="335"/>
+      <c r="E34" s="287">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.7</v>
       </c>
-      <c r="F34" s="313"/>
+      <c r="F34" s="288"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="280">
+      <c r="I34" s="287">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.7</v>
       </c>
-      <c r="J34" s="280"/>
+      <c r="J34" s="287"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="282"/>
-      <c r="D35" s="283"/>
-      <c r="E35" s="279">
+      <c r="C35" s="336"/>
+      <c r="D35" s="337"/>
+      <c r="E35" s="283">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="284"/>
       <c r="G35" s="209"/>
       <c r="H35" s="209"/>
-      <c r="I35" s="279">
+      <c r="I35" s="283">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="J35" s="279"/>
+      <c r="J35" s="283"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="274">
+        <v>189</v>
+      </c>
+      <c r="C37" s="333">
         <f>C31</f>
         <v>1.8</v>
       </c>
-      <c r="D37" s="275"/>
+      <c r="D37" s="334"/>
       <c r="E37" s="79" t="e">
         <f>IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v>#REF!</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="271" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" s="271"/>
-      <c r="I37" s="272" t="e">
+      <c r="G37" s="330" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="330"/>
+      <c r="I37" s="331" t="e">
         <f>Val_Models!C21</f>
         <v>#REF!</v>
       </c>
-      <c r="J37" s="273"/>
+      <c r="J37" s="332"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="274">
+        <v>205</v>
+      </c>
+      <c r="C38" s="333">
         <f>E34</f>
         <v>1.7</v>
       </c>
-      <c r="D38" s="275"/>
+      <c r="D38" s="334"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="271" t="s">
-        <v>206</v>
-      </c>
-      <c r="H38" s="271"/>
-      <c r="I38" s="272" t="e">
+      <c r="G38" s="330" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="330"/>
+      <c r="I38" s="331" t="e">
         <f>Val_Models!C22</f>
         <v>#REF!</v>
       </c>
-      <c r="J38" s="273"/>
+      <c r="J38" s="332"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -10633,14 +10647,14 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="121" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
@@ -10649,7 +10663,7 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -10665,7 +10679,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -10681,7 +10695,7 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -10697,7 +10711,7 @@
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -10725,10 +10739,10 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -10737,7 +10751,7 @@
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -10756,7 +10770,7 @@
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -10785,7 +10799,7 @@
     </row>
     <row r="50" spans="2:10" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -10804,7 +10818,7 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="66"/>
@@ -10823,7 +10837,7 @@
     </row>
     <row r="52" spans="2:10" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10842,7 +10856,7 @@
     </row>
     <row r="53" spans="2:10" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -10855,7 +10869,7 @@
         <v>#REF!</v>
       </c>
       <c r="G53" s="156" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H53" s="157">
         <v>0.4</v>
@@ -10866,54 +10880,54 @@
     <row r="54" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:10" ht="15.75" customHeight="1">
       <c r="B55" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15.75" customHeight="1">
       <c r="B56" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="60" spans="2:10" ht="15.75" customHeight="1">
       <c r="B60" s="130" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15.75" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="130" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -11821,14 +11835,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -11845,47 +11883,23 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>$B$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11900,17 +11914,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11920,17 +11934,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsBlanks" dxfId="11" priority="13">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11975,10 +11989,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N936"/>
+  <dimension ref="A1:N937"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12027,8 +12041,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="161">
-        <f t="array" ref="F3">AVERAGE(C25:INDEX(C25:M25,1,E3))</f>
-        <v>-13458</v>
+        <f t="array" ref="F3">AVERAGE(C24:INDEX(C24:M24,1,E3))</f>
+        <v>259140</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
@@ -12053,7 +12067,7 @@
       </c>
       <c r="F4" s="160">
         <f>AVERAGE(C22:INDEX(C22:M22,1,E4))</f>
-        <v>282282</v>
+        <v>229612.5</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -12120,24 +12134,49 @@
         <v>41</v>
       </c>
       <c r="C7" s="146">
-        <v>924200</v>
+        <f>IF(C9="","",SUM(C10:C14))</f>
+        <v>725499</v>
       </c>
       <c r="D7" s="146">
-        <v>1198013</v>
-      </c>
-      <c r="E7" s="146">
-        <v>1028541</v>
-      </c>
-      <c r="F7" s="146">
-        <v>699593</v>
-      </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
+        <f>IF(D9="","",SUM(D10:D14))</f>
+        <v>721746</v>
+      </c>
+      <c r="E7" s="146" t="str">
+        <f t="shared" ref="E7:M7" si="1">IF(E9="","",SUM(E10:E14))</f>
+        <v/>
+      </c>
+      <c r="F7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
@@ -12146,43 +12185,43 @@
         <v>42</v>
       </c>
       <c r="C8" s="136">
-        <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
-        <v>-0.22855595056147138</v>
-      </c>
-      <c r="D8" s="136">
-        <f t="shared" si="1"/>
-        <v>0.16476931887012758</v>
-      </c>
-      <c r="E8" s="136">
-        <f t="shared" si="1"/>
-        <v>0.47019910147757349</v>
+        <f t="shared" ref="C8:L8" si="2">IF(D7="","",C7/D7-1)</f>
+        <v>5.1998902661047897E-3</v>
+      </c>
+      <c r="D8" s="136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" s="136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="F8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L8" s="136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M8" s="136"/>
@@ -12190,129 +12229,180 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="141" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="329"/>
-      <c r="D9" s="329"/>
-      <c r="E9" s="329"/>
-      <c r="F9" s="329"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="329"/>
-      <c r="I9" s="329"/>
-      <c r="J9" s="329"/>
-      <c r="K9" s="329"/>
-      <c r="L9" s="329"/>
-      <c r="M9" s="329"/>
+      <c r="B9" s="339" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="51">
+        <f>IF(C10="","",C10+C11)</f>
+        <v>589966</v>
+      </c>
+      <c r="D9" s="51">
+        <f>IF(D10="","",D10+D11)</f>
+        <v>577987</v>
+      </c>
+      <c r="E9" s="51" t="str">
+        <f t="shared" ref="E9:M9" si="3">IF(E10="","",E10+E11)</f>
+        <v/>
+      </c>
+      <c r="F9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M9" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="328" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="329"/>
-      <c r="D10" s="329"/>
-      <c r="E10" s="329"/>
-      <c r="F10" s="329"/>
-      <c r="G10" s="329"/>
-      <c r="H10" s="329"/>
-      <c r="I10" s="329"/>
-      <c r="J10" s="329"/>
-      <c r="K10" s="329"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
+      <c r="B10" s="142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="179">
+        <v>1108547</v>
+      </c>
+      <c r="D10" s="179">
+        <v>1008014</v>
+      </c>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="328" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="329"/>
-      <c r="D11" s="329"/>
-      <c r="E11" s="329"/>
-      <c r="F11" s="329"/>
-      <c r="G11" s="329"/>
-      <c r="H11" s="329"/>
-      <c r="I11" s="329"/>
-      <c r="J11" s="329"/>
-      <c r="K11" s="329"/>
-      <c r="L11" s="329"/>
-      <c r="M11" s="329"/>
+      <c r="B11" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="179">
+        <v>-518581</v>
+      </c>
+      <c r="D11" s="179">
+        <v>-430027</v>
+      </c>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="329"/>
-      <c r="G12" s="329"/>
-      <c r="H12" s="329"/>
-      <c r="I12" s="329"/>
-      <c r="J12" s="329"/>
-      <c r="K12" s="329"/>
-      <c r="L12" s="329"/>
-      <c r="M12" s="329"/>
+      <c r="B12" s="339" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="147">
+        <v>81282</v>
+      </c>
+      <c r="D12" s="147">
+        <v>80329</v>
+      </c>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="141" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="329"/>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="329"/>
-      <c r="G13" s="329"/>
-      <c r="H13" s="329"/>
-      <c r="I13" s="329"/>
-      <c r="J13" s="329"/>
-      <c r="K13" s="329"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="329"/>
+      <c r="B13" s="339" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="147">
+        <f>5519+5909+160</f>
+        <v>11588</v>
+      </c>
+      <c r="D13" s="147">
+        <f>14241+15035+11</f>
+        <v>29287</v>
+      </c>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="141" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="329"/>
-      <c r="G14" s="329"/>
-      <c r="H14" s="329"/>
-      <c r="I14" s="329"/>
-      <c r="J14" s="329"/>
-      <c r="K14" s="329"/>
-      <c r="L14" s="329"/>
-      <c r="M14" s="329"/>
+      <c r="B14" s="339" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="147">
+        <v>42663</v>
+      </c>
+      <c r="D14" s="147">
+        <v>34143</v>
+      </c>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="135">
-        <v>149665</v>
+        <v>274023</v>
       </c>
       <c r="D15" s="135">
-        <v>270763</v>
-      </c>
-      <c r="E15" s="135">
-        <v>398163</v>
-      </c>
-      <c r="F15" s="135">
-        <v>336621</v>
-      </c>
+        <v>260275</v>
+      </c>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="135"/>
       <c r="H15" s="135"/>
       <c r="I15" s="135"/>
@@ -12325,73 +12415,38 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="136">
-        <f>IF(C7="","",(C7-C15)/C7)</f>
-        <v>0.83805994373512227</v>
-      </c>
-      <c r="D16" s="136">
-        <f>IF(D7="","",(D7-D15)/D7)</f>
-        <v>0.77398993166184338</v>
-      </c>
-      <c r="E16" s="136">
-        <f>IF(E7="","",(E7-E15)/E7)</f>
-        <v>0.61288563119992301</v>
-      </c>
-      <c r="F16" s="136">
-        <f>IF(F7="","",(F7-F15)/F7)</f>
-        <v>0.51883309295547553</v>
-      </c>
-      <c r="G16" s="136" t="str">
-        <f>IF(G7="","",(G7-G15)/G7)</f>
-        <v/>
-      </c>
-      <c r="H16" s="136" t="str">
-        <f>IF(H7="","",(H7-H15)/H7)</f>
-        <v/>
-      </c>
-      <c r="I16" s="136" t="str">
-        <f>IF(I7="","",(I7-I15)/I7)</f>
-        <v/>
-      </c>
-      <c r="J16" s="136" t="str">
-        <f>IF(J7="","",(J7-J15)/J7)</f>
-        <v/>
-      </c>
-      <c r="K16" s="136" t="str">
-        <f>IF(K7="","",(K7-K15)/K7)</f>
-        <v/>
-      </c>
-      <c r="L16" s="136" t="str">
-        <f>IF(L7="","",(L7-L15)/L7)</f>
-        <v/>
-      </c>
-      <c r="M16" s="136" t="str">
-        <f>IF(M7="","",(M7-M15)/M7)</f>
-        <v/>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C16" s="135">
+        <v>145267</v>
+      </c>
+      <c r="D16" s="135">
+        <v>165886</v>
+      </c>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="141" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="C17" s="135">
-        <f>162582+235577</f>
-        <v>398159</v>
+        <v>59</v>
       </c>
       <c r="D17" s="135">
-        <f>136252+220149</f>
-        <v>356401</v>
-      </c>
-      <c r="E17" s="135">
-        <v>124222</v>
-      </c>
-      <c r="F17" s="135">
-        <v>94347</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="135"/>
       <c r="H17" s="135"/>
       <c r="I17" s="135"/>
@@ -12404,50 +12459,50 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="136">
-        <f>IF(C7="","",C16-C19)</f>
-        <v>0.43081475871023589</v>
+        <f>IF(C7="","",C15/C7)</f>
+        <v>0.37770279490392128</v>
       </c>
       <c r="D18" s="136">
-        <f>IF(D7="","",D16-D19)</f>
-        <v>0.29749343287593705</v>
-      </c>
-      <c r="E18" s="136">
-        <f>IF(E7="","",E16-E19)</f>
-        <v>0.1207749618148426</v>
-      </c>
-      <c r="F18" s="136">
-        <f>IF(F7="","",F16-F19)</f>
-        <v>0.13485983993550532</v>
+        <f>IF(D7="","",D15/D7)</f>
+        <v>0.36061855555832661</v>
+      </c>
+      <c r="E18" s="136" t="str">
+        <f>IF(E7="","",E15/E7)</f>
+        <v/>
+      </c>
+      <c r="F18" s="136" t="str">
+        <f>IF(F7="","",F15/F7)</f>
+        <v/>
       </c>
       <c r="G18" s="136" t="str">
-        <f>IF(G7="","",G16-G19)</f>
+        <f>IF(G7="","",G15/G7)</f>
         <v/>
       </c>
       <c r="H18" s="136" t="str">
-        <f>IF(H7="","",H16-H19)</f>
+        <f>IF(H7="","",H15/H7)</f>
         <v/>
       </c>
       <c r="I18" s="136" t="str">
-        <f>IF(I7="","",I16-I19)</f>
+        <f>IF(I7="","",I15/I7)</f>
         <v/>
       </c>
       <c r="J18" s="136" t="str">
-        <f>IF(J7="","",J16-J19)</f>
+        <f>IF(J7="","",J15/J7)</f>
         <v/>
       </c>
       <c r="K18" s="136" t="str">
-        <f>IF(K7="","",K16-K19)</f>
+        <f>IF(K7="","",K15/K7)</f>
         <v/>
       </c>
       <c r="L18" s="136" t="str">
-        <f>IF(L7="","",L16-L19)</f>
+        <f>IF(L7="","",L15/L7)</f>
         <v/>
       </c>
       <c r="M18" s="136" t="str">
-        <f>IF(M7="","",M16-M19)</f>
+        <f>IF(M7="","",M15/M7)</f>
         <v/>
       </c>
       <c r="N18" s="6"/>
@@ -12455,23 +12510,23 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="136">
         <f>IF(C20="","",C20/C7)</f>
-        <v>0.40724518502488638</v>
+        <v>0.42198541969044756</v>
       </c>
       <c r="D19" s="136">
         <f>IF(D20="","",D20/D7)</f>
-        <v>0.47649649878590633</v>
-      </c>
-      <c r="E19" s="136">
+        <v>0.40938363357746355</v>
+      </c>
+      <c r="E19" s="136" t="str">
         <f>IF(E20="","",E20/E7)</f>
-        <v>0.49211066938508041</v>
-      </c>
-      <c r="F19" s="136">
+        <v/>
+      </c>
+      <c r="F19" s="136" t="str">
         <f>IF(F20="","",F20/F7)</f>
-        <v>0.38397325301997021</v>
+        <v/>
       </c>
       <c r="G19" s="136" t="str">
         <f>IF(G20="","",G20/G7)</f>
@@ -12506,50 +12561,50 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="51">
-        <f>IF(C7="","",C7-C15-C17)</f>
-        <v>376376</v>
+        <f>IF(C7="","",C7-C15-C16-C17)</f>
+        <v>306150</v>
       </c>
       <c r="D20" s="51">
-        <f>IF(D7="","",D7-D15-D17)</f>
-        <v>570849</v>
-      </c>
-      <c r="E20" s="51">
-        <f>IF(E7="","",E7-E15-E17)</f>
-        <v>506156</v>
-      </c>
-      <c r="F20" s="51">
-        <f>IF(F7="","",F7-F15-F17)</f>
-        <v>268625</v>
+        <f>IF(D7="","",D7-D15-D16-D17)</f>
+        <v>295471</v>
+      </c>
+      <c r="E20" s="51" t="str">
+        <f t="shared" ref="E20:M20" si="4">IF(E7="","",E7-E15-E16-E17)</f>
+        <v/>
+      </c>
+      <c r="F20" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G20" s="51" t="str">
-        <f>IF(G7="","",G7-G15-G17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H20" s="51" t="str">
-        <f>IF(H7="","",H7-H15-H17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I20" s="51" t="str">
-        <f>IF(I7="","",I7-I15-I17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J20" s="51" t="str">
-        <f>IF(J7="","",J7-J15-J17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K20" s="51" t="str">
-        <f>IF(K7="","",K7-K15-K17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L20" s="51" t="str">
-        <f>IF(L7="","",L7-L15-L17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M20" s="51" t="str">
-        <f>IF(M7="","",M7-M15-M17)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N20" s="6"/>
@@ -12557,50 +12612,50 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="136">
         <f>IF(D20="","",IF(ABS(C20+D20)=ABS(C20)+ABS(D20),IF(C20&lt;0,-1,1)*(C20-D20)/D20,"Turn"))</f>
-        <v>-0.34067327787208174</v>
-      </c>
-      <c r="D21" s="136">
-        <f t="shared" ref="D21:M21" si="2">IF(E20="","",IF(ABS(D20+E20)=ABS(D20)+ABS(E20),IF(D20&lt;0,-1,1)*(D20-E20)/E20,"Turn"))</f>
-        <v>0.12781237405068793</v>
-      </c>
-      <c r="E21" s="136">
-        <f t="shared" si="2"/>
-        <v>0.8842475570032573</v>
+        <v>3.6142294844502508E-2</v>
+      </c>
+      <c r="D21" s="136" t="str">
+        <f t="shared" ref="D21:M21" si="5">IF(E20="","",IF(ABS(D20+E20)=ABS(D20)+ABS(E20),IF(D20&lt;0,-1,1)*(D20-E20)/E20,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E21" s="136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="F21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M21" s="136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N21" s="6"/>
@@ -12608,23 +12663,23 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="51">
         <f>IF(C20="","",C20*(1-Projections!$F$18))</f>
-        <v>282282</v>
+        <v>229612.5</v>
       </c>
       <c r="D22" s="51">
         <f>IF(D20="","",D20*(1-Projections!$F$18))</f>
-        <v>428136.75</v>
-      </c>
-      <c r="E22" s="51">
+        <v>221603.25</v>
+      </c>
+      <c r="E22" s="51" t="str">
         <f>IF(E20="","",E20*(1-Projections!$F$18))</f>
-        <v>379617</v>
-      </c>
-      <c r="F22" s="51">
+        <v/>
+      </c>
+      <c r="F22" s="51" t="str">
         <f>IF(F20="","",F20*(1-Projections!$F$18))</f>
-        <v>201468.75</v>
+        <v/>
       </c>
       <c r="G22" s="51" t="str">
         <f>IF(G20="","",G20*(1-Projections!$F$18))</f>
@@ -12659,23 +12714,23 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="136">
         <f>IF(C7="","",C22/C7)</f>
-        <v>0.30543388876866479</v>
+        <v>0.31648906476783567</v>
       </c>
       <c r="D23" s="136">
         <f>IF(D7="","",D22/D7)</f>
-        <v>0.35737237408942973</v>
-      </c>
-      <c r="E23" s="136">
+        <v>0.30703772518309763</v>
+      </c>
+      <c r="E23" s="136" t="str">
         <f>IF(E7="","",E22/E7)</f>
-        <v>0.36908300203881034</v>
-      </c>
-      <c r="F23" s="136">
+        <v/>
+      </c>
+      <c r="F23" s="136" t="str">
         <f>IF(F7="","",F22/F7)</f>
-        <v>0.28797993976497765</v>
+        <v/>
       </c>
       <c r="G23" s="136" t="str">
         <f>IF(G7="","",G22/G7)</f>
@@ -12710,20 +12765,16 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="141" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="C24" s="135">
-        <v>30280</v>
+        <v>259140</v>
       </c>
       <c r="D24" s="135">
-        <v>135144</v>
-      </c>
-      <c r="E24" s="135">
-        <v>140407</v>
-      </c>
-      <c r="F24" s="135">
-        <v>108297</v>
-      </c>
+        <v>241936</v>
+      </c>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="135"/>
       <c r="H24" s="135"/>
       <c r="I24" s="135"/>
@@ -12736,97 +12787,89 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="141" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="135">
-        <v>-13458</v>
-      </c>
-      <c r="D25" s="135">
-        <v>-12991790</v>
-      </c>
-      <c r="E25" s="135">
-        <v>-717056</v>
-      </c>
-      <c r="F25" s="135">
-        <v>-1081638</v>
-      </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+        <v>164</v>
+      </c>
+      <c r="C25" s="136">
+        <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
+        <v>7.1109714965941401E-2</v>
+      </c>
+      <c r="D25" s="136" t="str">
+        <f t="shared" ref="D25:M25" si="6">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M25" s="136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="141" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="136">
-        <f>IF(D25="","",IF(ABS(C25+D25)=ABS(C25)+ABS(D25),IF(C25&lt;0,-1,1)*(C25-D25)/D25,"Turn"))</f>
-        <v>0.99896411502956872</v>
-      </c>
-      <c r="D26" s="136">
-        <f t="shared" ref="D26:M26" si="3">IF(E25="","",IF(ABS(D25+E25)=ABS(D25)+ABS(E25),IF(D25&lt;0,-1,1)*(D25-E25)/E25,"Turn"))</f>
-        <v>-17.118236232595503</v>
-      </c>
-      <c r="E26" s="136">
-        <f t="shared" si="3"/>
-        <v>0.3370647111140696</v>
-      </c>
-      <c r="F26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M26" s="136" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C26" s="137">
+        <v>33927533</v>
+      </c>
+      <c r="D26" s="135">
+        <v>29069155</v>
+      </c>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="141" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="C27" s="137">
-        <v>11924356</v>
+        <v>31253082</v>
       </c>
       <c r="D27" s="135">
-        <v>11808265</v>
-      </c>
-      <c r="E27" s="135">
-        <v>6136803</v>
-      </c>
-      <c r="F27" s="135">
-        <v>3771652</v>
-      </c>
+        <v>26647796</v>
+      </c>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
       <c r="G27" s="135"/>
       <c r="H27" s="135"/>
       <c r="I27" s="135"/>
@@ -12839,21 +12882,23 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="141" t="s">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="C28" s="137">
-        <v>1937845</v>
+        <v>25121040</v>
       </c>
       <c r="D28" s="135">
-        <v>2024596</v>
+        <v>21907127</v>
       </c>
       <c r="E28" s="135">
-        <v>9408613</v>
+        <v>20372901</v>
       </c>
       <c r="F28" s="135">
-        <v>6338479</v>
-      </c>
-      <c r="G28" s="135"/>
+        <v>18849155</v>
+      </c>
+      <c r="G28" s="135">
+        <v>17602056</v>
+      </c>
       <c r="H28" s="135"/>
       <c r="I28" s="135"/>
       <c r="J28" s="135"/>
@@ -12865,20 +12910,16 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="137">
-        <v>9956528</v>
+        <v>2674451</v>
       </c>
       <c r="D29" s="135">
-        <v>9722107</v>
-      </c>
-      <c r="E29" s="135">
-        <v>-3323489</v>
-      </c>
-      <c r="F29" s="135">
-        <v>-2590443</v>
-      </c>
+        <v>2421359</v>
+      </c>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="135"/>
       <c r="H29" s="135"/>
       <c r="I29" s="135"/>
@@ -12891,20 +12932,16 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="139">
-        <v>9957299</v>
+        <v>2668412</v>
       </c>
       <c r="D30" s="138">
-        <v>9714578</v>
-      </c>
-      <c r="E30" s="138">
-        <v>-3329901</v>
-      </c>
-      <c r="F30" s="138">
-        <v>-2595281</v>
-      </c>
+        <v>2414605</v>
+      </c>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="138"/>
       <c r="H30" s="138"/>
       <c r="I30" s="138"/>
@@ -12916,292 +12953,305 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="C31" s="137">
-        <v>69919</v>
-      </c>
-      <c r="D31" s="135">
-        <v>92416</v>
-      </c>
-      <c r="E31" s="135">
-        <v>68053</v>
-      </c>
-      <c r="F31" s="135">
-        <v>21197</v>
-      </c>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="B31" s="143" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="274">
+        <v>1705633</v>
+      </c>
+      <c r="D31" s="275">
+        <v>1124762</v>
+      </c>
+      <c r="E31" s="275"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="275"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="335">
-        <v>5731387</v>
-      </c>
-      <c r="D32" s="336">
-        <v>4927885</v>
-      </c>
-      <c r="E32" s="336">
-        <v>587337</v>
-      </c>
-      <c r="F32" s="336">
-        <v>390027</v>
-      </c>
-      <c r="G32" s="336"/>
-      <c r="H32" s="336"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="336"/>
-      <c r="K32" s="336"/>
-      <c r="L32" s="336"/>
-      <c r="M32" s="336"/>
+      <c r="B32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="B33" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="149">
+        <v>87681</v>
+      </c>
+      <c r="D33" s="149">
+        <v>78677</v>
+      </c>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
-      <c r="B34" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="149">
+      <c r="B34" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="147">
         <v>0</v>
       </c>
-      <c r="D34" s="149">
+      <c r="D34" s="147">
         <v>0</v>
       </c>
-      <c r="E34" s="149">
-        <v>0</v>
-      </c>
-      <c r="F34" s="149">
-        <v>0</v>
-      </c>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="147">
-        <v>58526</v>
-      </c>
-      <c r="D35" s="147">
-        <v>246343</v>
-      </c>
-      <c r="E35" s="147">
-        <v>0</v>
-      </c>
-      <c r="F35" s="147">
-        <v>0</v>
-      </c>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
+        <v>134</v>
+      </c>
+      <c r="C35" s="148">
+        <f t="shared" ref="C35:M35" si="7">IF(C33="","",C33*$C$4/Common_Shares)</f>
+        <v>43.463239084744416</v>
+      </c>
+      <c r="D35" s="148">
+        <f t="shared" si="7"/>
+        <v>38.99998017210612</v>
+      </c>
+      <c r="E35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M35" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="141" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="148">
-        <f t="shared" ref="C36:M36" si="4">IF(C34="","",C34*$C$4/Common_Shares)</f>
+      <c r="B36" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="150">
+        <f t="shared" ref="C36:M36" si="8">IF(C34="","",C34*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="148">
-        <f t="shared" si="4"/>
+      <c r="D36" s="150">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E36" s="148">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="148">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H36" s="148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I36" s="148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J36" s="148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K36" s="148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L36" s="148" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M36" s="148" t="str">
-        <f t="shared" si="4"/>
+      <c r="E36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L36" s="150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M36" s="150" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="143" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="150">
-        <f t="shared" ref="C37:M37" si="5">IF(C35="","",C35*$C$4/Common_Shares)</f>
-        <v>29.011182932148948</v>
-      </c>
-      <c r="D37" s="150">
-        <f t="shared" si="5"/>
-        <v>122.11157155886902</v>
-      </c>
-      <c r="E37" s="150">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="150">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M37" s="150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N37" s="6"/>
+      <c r="B37" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="B38" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="152">
+        <f>IF(C30="","",(C26-C30)/C26)</f>
+        <v>0.92134966017128328</v>
+      </c>
+      <c r="D38" s="152">
+        <f>IF(D30="","",(D26-D30)/D26)</f>
+        <v>0.91693583800423506</v>
+      </c>
+      <c r="E38" s="152" t="str">
+        <f>IF(E30="","",(E26-E30)/E26)</f>
+        <v/>
+      </c>
+      <c r="F38" s="152" t="str">
+        <f>IF(F30="","",(F26-F30)/F26)</f>
+        <v/>
+      </c>
+      <c r="G38" s="152" t="str">
+        <f>IF(G30="","",(G26-G30)/G26)</f>
+        <v/>
+      </c>
+      <c r="H38" s="152" t="str">
+        <f>IF(H30="","",(H26-H30)/H26)</f>
+        <v/>
+      </c>
+      <c r="I38" s="152" t="str">
+        <f>IF(I30="","",(I26-I30)/I26)</f>
+        <v/>
+      </c>
+      <c r="J38" s="152" t="str">
+        <f>IF(J30="","",(J26-J30)/J26)</f>
+        <v/>
+      </c>
+      <c r="K38" s="152" t="str">
+        <f>IF(K30="","",(K26-K30)/K26)</f>
+        <v/>
+      </c>
+      <c r="L38" s="152" t="str">
+        <f>IF(L30="","",(L26-L30)/L26)</f>
+        <v/>
+      </c>
+      <c r="M38" s="152" t="str">
+        <f>IF(M30="","",(M26-M30)/M26)</f>
+        <v/>
+      </c>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="145" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" s="152">
-        <f>IF(C30="","",(C27-C30)/C27)</f>
-        <v>0.16496127757339685</v>
-      </c>
-      <c r="D39" s="152">
-        <f>IF(D30="","",(D27-D30)/D27)</f>
-        <v>0.17730691172665924</v>
-      </c>
-      <c r="E39" s="152">
-        <f>IF(E30="","",(E27-E30)/E27)</f>
-        <v>1.5426116823368781</v>
-      </c>
-      <c r="F39" s="152">
-        <f>IF(F30="","",(F27-F30)/F27)</f>
-        <v>1.6881019245678022</v>
-      </c>
-      <c r="G39" s="152" t="str">
-        <f>IF(G30="","",(G27-G30)/G27)</f>
-        <v/>
-      </c>
-      <c r="H39" s="152" t="str">
-        <f>IF(H30="","",(H27-H30)/H27)</f>
-        <v/>
-      </c>
-      <c r="I39" s="152" t="str">
-        <f>IF(I30="","",(I27-I30)/I27)</f>
-        <v/>
-      </c>
-      <c r="J39" s="152" t="str">
-        <f>IF(J30="","",(J27-J30)/J27)</f>
-        <v/>
-      </c>
-      <c r="K39" s="152" t="str">
-        <f>IF(K30="","",(K27-K30)/K27)</f>
-        <v/>
-      </c>
-      <c r="L39" s="152" t="str">
-        <f>IF(L30="","",(L27-L30)/L27)</f>
-        <v/>
-      </c>
-      <c r="M39" s="152" t="str">
-        <f>IF(M30="","",(M27-M30)/M27)</f>
+      <c r="B39" s="141" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="136">
+        <f>IF(C7="","",C9/C7)</f>
+        <v>0.8131865102501864</v>
+      </c>
+      <c r="D39" s="136">
+        <f>IF(D7="","",D9/D7)</f>
+        <v>0.80081773920465094</v>
+      </c>
+      <c r="E39" s="136" t="str">
+        <f t="shared" ref="E39:M39" si="9">IF(E7="","",E9/E7)</f>
+        <v/>
+      </c>
+      <c r="F39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L39" s="136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M39" s="136" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N39" s="6"/>
@@ -13209,221 +13259,221 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="141" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="C40" s="136">
-        <f>IF(C20="","",IF(C24&lt;=0,"-",C24/C20))</f>
-        <v>8.0451463430186831E-2</v>
+        <f>IF(C9="","",IF(C9&lt;=0,"-",C9/C28))</f>
+        <v>2.3484935337072032E-2</v>
       </c>
       <c r="D40" s="136">
-        <f>IF(D20="","",IF(D24&lt;=0,"-",D24/D20))</f>
-        <v>0.23674211569083944</v>
-      </c>
-      <c r="E40" s="136">
-        <f>IF(E20="","",IF(E24&lt;=0,"-",E24/E20))</f>
-        <v>0.27739866760445397</v>
-      </c>
-      <c r="F40" s="136">
-        <f>IF(F20="","",IF(F24&lt;=0,"-",F24/F20))</f>
-        <v>0.40315309446254072</v>
+        <f>IF(D9="","",IF(D9&lt;=0,"-",D9/D28))</f>
+        <v>2.6383514369547407E-2</v>
+      </c>
+      <c r="E40" s="136" t="str">
+        <f t="shared" ref="E40:M40" si="10">IF(E9="","",IF(E9&lt;=0,"-",E9/E28))</f>
+        <v/>
+      </c>
+      <c r="F40" s="136" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="G40" s="136" t="str">
-        <f>IF(G20="","",IF(G24&lt;=0,"-",G24/G20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H40" s="136" t="str">
-        <f>IF(H20="","",IF(H24&lt;=0,"-",H24/H20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40" s="136" t="str">
-        <f>IF(I20="","",IF(I24&lt;=0,"-",I24/I20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J40" s="136" t="str">
-        <f>IF(J20="","",IF(J24&lt;=0,"-",J24/J20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K40" s="136" t="str">
-        <f>IF(K20="","",IF(K24&lt;=0,"-",K24/K20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L40" s="136" t="str">
-        <f>IF(L20="","",IF(L24&lt;=0,"-",L24/L20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M40" s="136" t="str">
-        <f>IF(M20="","",IF(M24&lt;=0,"-",M24/M20))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="143" t="s">
-        <v>330</v>
-      </c>
-      <c r="C41" s="153">
-        <f>IF(C27="","",C27/C28)</f>
-        <v>6.1534106184963191</v>
-      </c>
-      <c r="D41" s="153">
-        <f>IF(D27="","",D27/D28)</f>
-        <v>5.8324055762236018</v>
-      </c>
-      <c r="E41" s="153">
-        <f t="shared" ref="E41:M41" si="6">IF(E27="","",E27/E28)</f>
-        <v>0.65225373814397514</v>
-      </c>
-      <c r="F41" s="153">
-        <f t="shared" si="6"/>
-        <v>0.59504054521597372</v>
-      </c>
-      <c r="G41" s="153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H41" s="153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I41" s="153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J41" s="153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K41" s="153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L41" s="153" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M41" s="153" t="str">
-        <f t="shared" si="6"/>
+      <c r="B41" s="141" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="136">
+        <f>IF(C7="","",C24/C7)</f>
+        <v>0.35718863844057674</v>
+      </c>
+      <c r="D41" s="136">
+        <f>IF(D7="","",D24/D7)</f>
+        <v>0.33520933957375587</v>
+      </c>
+      <c r="E41" s="136" t="str">
+        <f t="shared" ref="E41:M41" si="11">IF(E7="","",E24/E7)</f>
+        <v/>
+      </c>
+      <c r="F41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L41" s="136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M41" s="136" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="133" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
+      <c r="B42" s="143" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="153">
+        <f>IF(C26="","",C26/C30)</f>
+        <v>12.714503232634241</v>
+      </c>
+      <c r="D42" s="153">
+        <f>IF(D26="","",D26/D30)</f>
+        <v>12.038886277465673</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" ref="E42:M42" si="12">IF(E26="","",E26/E30)</f>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="145" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="152">
-        <f>C19</f>
-        <v>0.40724518502488638</v>
-      </c>
-      <c r="D43" s="152">
-        <f>D19</f>
-        <v>0.47649649878590633</v>
-      </c>
-      <c r="E43" s="152">
-        <f>E19</f>
-        <v>0.49211066938508041</v>
-      </c>
-      <c r="F43" s="152">
-        <f>F19</f>
-        <v>0.38397325301997021</v>
-      </c>
-      <c r="G43" s="152" t="str">
-        <f>G19</f>
-        <v/>
-      </c>
-      <c r="H43" s="152" t="str">
-        <f>H19</f>
-        <v/>
-      </c>
-      <c r="I43" s="152" t="str">
-        <f>I19</f>
-        <v/>
-      </c>
-      <c r="J43" s="152" t="str">
-        <f>J19</f>
-        <v/>
-      </c>
-      <c r="K43" s="152" t="str">
-        <f>K19</f>
-        <v/>
-      </c>
-      <c r="L43" s="152" t="str">
-        <f>L19</f>
-        <v/>
-      </c>
-      <c r="M43" s="152" t="str">
-        <f>M19</f>
-        <v/>
-      </c>
+      <c r="B43" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="9"/>
-      <c r="B44" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="136">
-        <f>C7/C27</f>
-        <v>7.7505233825625464E-2</v>
-      </c>
-      <c r="D44" s="136">
-        <f>IF(D7="","",D7/D27)</f>
-        <v>0.10145546360959887</v>
-      </c>
-      <c r="E44" s="136">
-        <f>IF(E7="","",E7/E27)</f>
-        <v>0.16760208857934661</v>
-      </c>
-      <c r="F44" s="136">
-        <f>IF(F7="","",F7/F27)</f>
-        <v>0.18548715523065223</v>
-      </c>
-      <c r="G44" s="136" t="str">
-        <f>IF(G7="","",G7/G27)</f>
-        <v/>
-      </c>
-      <c r="H44" s="136" t="str">
-        <f>IF(H7="","",H7/H27)</f>
-        <v/>
-      </c>
-      <c r="I44" s="136" t="str">
-        <f>IF(I7="","",I7/I27)</f>
-        <v/>
-      </c>
-      <c r="J44" s="136" t="str">
-        <f>IF(J7="","",J7/J27)</f>
-        <v/>
-      </c>
-      <c r="K44" s="136" t="str">
-        <f>IF(K7="","",K7/K27)</f>
-        <v/>
-      </c>
-      <c r="L44" s="136" t="str">
-        <f>IF(L7="","",L7/L27)</f>
-        <v/>
-      </c>
-      <c r="M44" s="136" t="str">
-        <f>IF(M7="","",M7/M27)</f>
+      <c r="B44" s="145" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="152">
+        <f t="shared" ref="C44:M44" si="13">C19</f>
+        <v>0.42198541969044756</v>
+      </c>
+      <c r="D44" s="152">
+        <f t="shared" si="13"/>
+        <v>0.40938363357746355</v>
+      </c>
+      <c r="E44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L44" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M44" s="152" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N44" s="6"/>
@@ -13431,50 +13481,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="141" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="154">
-        <f>C27/C29</f>
-        <v>1.1976419892556924</v>
-      </c>
-      <c r="D45" s="154">
-        <f>IF(D29="","",D27/D29)</f>
-        <v>1.2145787944938273</v>
-      </c>
-      <c r="E45" s="154">
-        <f>IF(E29="","",E27/E29)</f>
-        <v>-1.8464941511766702</v>
-      </c>
-      <c r="F45" s="154">
-        <f>IF(F29="","",F27/F29)</f>
-        <v>-1.4559872577779167</v>
-      </c>
-      <c r="G45" s="154" t="str">
-        <f>IF(G29="","",G27/G29)</f>
-        <v/>
-      </c>
-      <c r="H45" s="154" t="str">
-        <f>IF(H29="","",H27/H29)</f>
-        <v/>
-      </c>
-      <c r="I45" s="154" t="str">
-        <f>IF(I29="","",I27/I29)</f>
-        <v/>
-      </c>
-      <c r="J45" s="154" t="str">
-        <f>IF(J29="","",J27/J29)</f>
-        <v/>
-      </c>
-      <c r="K45" s="154" t="str">
-        <f>IF(K29="","",K27/K29)</f>
-        <v/>
-      </c>
-      <c r="L45" s="154" t="str">
-        <f>IF(L29="","",L27/L29)</f>
-        <v/>
-      </c>
-      <c r="M45" s="154" t="str">
-        <f>IF(M29="","",M27/M29)</f>
+        <v>219</v>
+      </c>
+      <c r="C45" s="136">
+        <f>C7/C26</f>
+        <v>2.1383782899864839E-2</v>
+      </c>
+      <c r="D45" s="136">
+        <f>IF(D7="","",D7/D26)</f>
+        <v>2.4828585488639074E-2</v>
+      </c>
+      <c r="E45" s="136" t="str">
+        <f>IF(E7="","",E7/E26)</f>
+        <v/>
+      </c>
+      <c r="F45" s="136" t="str">
+        <f>IF(F7="","",F7/F26)</f>
+        <v/>
+      </c>
+      <c r="G45" s="136" t="str">
+        <f>IF(G7="","",G7/G26)</f>
+        <v/>
+      </c>
+      <c r="H45" s="136" t="str">
+        <f>IF(H7="","",H7/H26)</f>
+        <v/>
+      </c>
+      <c r="I45" s="136" t="str">
+        <f>IF(I7="","",I7/I26)</f>
+        <v/>
+      </c>
+      <c r="J45" s="136" t="str">
+        <f>IF(J7="","",J7/J26)</f>
+        <v/>
+      </c>
+      <c r="K45" s="136" t="str">
+        <f>IF(K7="","",K7/K26)</f>
+        <v/>
+      </c>
+      <c r="L45" s="136" t="str">
+        <f>IF(L7="","",L7/L26)</f>
+        <v/>
+      </c>
+      <c r="M45" s="136" t="str">
+        <f>IF(M7="","",M7/M26)</f>
         <v/>
       </c>
       <c r="N45" s="6"/>
@@ -13482,183 +13532,279 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="141" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="136">
-        <f>C43*C44*C45</f>
-        <v>3.7801932561230184E-2</v>
-      </c>
-      <c r="D46" s="136">
-        <f>IF(D43="","",D43*D44*D45)</f>
-        <v>5.8716593018365258E-2</v>
-      </c>
-      <c r="E46" s="136">
-        <f t="shared" ref="E46:M46" si="7">IF(E43="","",E43*E44*E45)</f>
-        <v>-0.15229657748227843</v>
-      </c>
-      <c r="F46" s="136">
-        <f t="shared" si="7"/>
-        <v>-0.10369847937206106</v>
-      </c>
-      <c r="G46" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H46" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I46" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J46" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K46" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L46" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M46" s="136" t="str">
-        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="C46" s="154">
+        <f>C26/C29</f>
+        <v>12.685793458171416</v>
+      </c>
+      <c r="D46" s="154">
+        <f>IF(D29="","",D26/D29)</f>
+        <v>12.005305698163717</v>
+      </c>
+      <c r="E46" s="154" t="str">
+        <f>IF(E29="","",E26/E29)</f>
+        <v/>
+      </c>
+      <c r="F46" s="154" t="str">
+        <f>IF(F29="","",F26/F29)</f>
+        <v/>
+      </c>
+      <c r="G46" s="154" t="str">
+        <f>IF(G29="","",G26/G29)</f>
+        <v/>
+      </c>
+      <c r="H46" s="154" t="str">
+        <f>IF(H29="","",H26/H29)</f>
+        <v/>
+      </c>
+      <c r="I46" s="154" t="str">
+        <f>IF(I29="","",I26/I29)</f>
+        <v/>
+      </c>
+      <c r="J46" s="154" t="str">
+        <f>IF(J29="","",J26/J29)</f>
+        <v/>
+      </c>
+      <c r="K46" s="154" t="str">
+        <f>IF(K29="","",K26/K29)</f>
+        <v/>
+      </c>
+      <c r="L46" s="154" t="str">
+        <f>IF(L29="","",L26/L29)</f>
+        <v/>
+      </c>
+      <c r="M46" s="154" t="str">
+        <f>IF(M29="","",M26/M29)</f>
         <v/>
       </c>
       <c r="N46" s="6"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="155" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="144" t="e">
-        <f>#REF!*C46</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*D46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*E46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*F46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*G46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*H46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*I46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*J46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*K46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*L46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M47" s="144" t="e">
-        <f>IF(#REF!="","",#REF!*M46)</f>
-        <v>#REF!</v>
+      <c r="B47" s="141" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="136">
+        <f>C44*C45*C46</f>
+        <v>0.11447209165544632</v>
+      </c>
+      <c r="D47" s="136">
+        <f>IF(D44="","",D44*D45*D46)</f>
+        <v>0.12202692785332533</v>
+      </c>
+      <c r="E47" s="136" t="str">
+        <f t="shared" ref="E47:M47" si="14">IF(E44="","",E44*E45*E46)</f>
+        <v/>
+      </c>
+      <c r="F47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M47" s="136" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="108" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B48" s="155" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="144">
+        <f>((C24-C33)/C24)*C47</f>
+        <v>7.5740026098445518E-2</v>
+      </c>
+      <c r="D48" s="144">
+        <f>IF(D47="","",((D24-D33)/D24)*D47)</f>
+        <v>8.2344067085535183E-2</v>
+      </c>
+      <c r="E48" s="144" t="str">
+        <f t="shared" ref="E48:M48" si="15">IF(E47="","",((E24-E33)/E24)*E47)</f>
+        <v/>
+      </c>
+      <c r="F48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M48" s="144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1">
       <c r="A49" s="9"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B49" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B50" s="145" t="s">
+        <v>335</v>
+      </c>
+      <c r="C50" s="152">
+        <f>C16/C28</f>
+        <v>5.7826825640976643E-3</v>
+      </c>
+      <c r="D50" s="152">
+        <f>IF(D28="","",D16/D28)</f>
+        <v>7.5722389339323223E-3</v>
+      </c>
+      <c r="E50" s="152">
+        <f t="shared" ref="E50:M50" si="16">IF(E28="","",E16/E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="152">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="152">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="152" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I50" s="152" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J50" s="152" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K50" s="152" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L50" s="152" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M50" s="152" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B51" s="141" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B52" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="32"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B54" s="32"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1">
       <c r="A55" s="9"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="9"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
@@ -14228,7 +14374,9 @@
     <row r="253" spans="1:1" ht="15.75" customHeight="1">
       <c r="A253" s="9"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A254" s="9"/>
+    </row>
     <row r="255" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="256" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
@@ -14911,21 +15059,27 @@
     <row r="934" ht="15.75" customHeight="1"/>
     <row r="935" ht="15.75" customHeight="1"/>
     <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="D43:M47 C7:M32 D39:M41">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+  <conditionalFormatting sqref="C7:M31 D38:M42 D44:M48">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:M37">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
-      <formula>LEN(TRIM(C34))=0</formula>
+  <conditionalFormatting sqref="C33:M36">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
+      <formula>LEN(TRIM(C33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:M24">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
+  <conditionalFormatting sqref="D23:M23">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(D23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:M50">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -14966,7 +15120,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="106" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="168"/>
@@ -14976,12 +15130,12 @@
       <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="K2" s="121" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="173">
@@ -14995,7 +15149,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I3" s="149">
         <v>2714446</v>
@@ -15004,7 +15158,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="169">
@@ -15015,7 +15169,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="132">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
@@ -15027,14 +15181,14 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" s="6"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="176">
@@ -15048,7 +15202,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I6" s="167">
         <f>C33/D3</f>
@@ -15059,7 +15213,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1">
       <c r="B7" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="170">
@@ -15071,7 +15225,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I7" s="167">
         <f>(I28+I29)/I3</f>
@@ -15085,9 +15239,9 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I8" s="333">
+        <v>309</v>
+      </c>
+      <c r="I8" s="272">
         <f>(I3-C32)/I33</f>
         <v>6.5130270877983829E-2</v>
       </c>
@@ -15096,14 +15250,14 @@
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="171">
         <v>45107</v>
       </c>
       <c r="E9" s="172" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -15113,32 +15267,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="244" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="244" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="244" t="s">
+      <c r="E10" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="244" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="244" t="s">
-        <v>66</v>
-      </c>
       <c r="F10" s="245" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I10" s="244" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="162">
         <v>3039971</v>
@@ -15153,7 +15307,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I11" s="162">
         <f>1056559+2975929</f>
@@ -15164,7 +15318,7 @@
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C12" s="162">
         <v>935143</v>
@@ -15179,7 +15333,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I12" s="162">
         <v>2001076</v>
@@ -15189,7 +15343,7 @@
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C13" s="162">
         <v>457564</v>
@@ -15204,7 +15358,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I13" s="162">
         <v>28231053</v>
@@ -15214,7 +15368,7 @@
     </row>
     <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C14" s="162">
         <v>109337</v>
@@ -15229,7 +15383,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I14" s="162">
         <v>11680</v>
@@ -15239,7 +15393,7 @@
     </row>
     <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C15" s="162">
         <f>540613+1745256</f>
@@ -15255,7 +15409,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I15" s="162">
         <v>56178</v>
@@ -15265,7 +15419,7 @@
     </row>
     <row r="16" spans="1:11" ht="14">
       <c r="B16" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C16" s="162">
         <v>7782325</v>
@@ -15280,7 +15434,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I16" s="162">
         <v>44213</v>
@@ -15289,7 +15443,7 @@
     </row>
     <row r="17" spans="2:10" ht="14">
       <c r="B17" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C17" s="162">
         <v>49511</v>
@@ -15302,14 +15456,14 @@
         <v>24755.5</v>
       </c>
       <c r="F17" s="164" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G17" s="58">
         <f>IF(F17="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I17" s="124">
         <f>I33-SUM(I11:I16)</f>
@@ -15319,7 +15473,7 @@
     </row>
     <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C18" s="162">
         <v>1885228</v>
@@ -15339,7 +15493,7 @@
     </row>
     <row r="19" spans="2:10" ht="14">
       <c r="B19" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C19" s="162">
         <v>20915065</v>
@@ -15358,7 +15512,7 @@
     </row>
     <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="162">
         <v>8077</v>
@@ -15377,7 +15531,7 @@
     </row>
     <row r="21" spans="2:10" ht="14">
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="162">
         <v>0</v>
@@ -15390,7 +15544,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="164" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G21" s="58">
         <f>IF(F21="Y",0,1)</f>
@@ -15401,7 +15555,7 @@
     </row>
     <row r="22" spans="2:10" ht="14">
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="162">
         <v>10161</v>
@@ -15414,7 +15568,7 @@
         <v>4064.4</v>
       </c>
       <c r="F22" s="164" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" s="58">
         <f>IF(F22="Y",0,1)</f>
@@ -15425,7 +15579,7 @@
     </row>
     <row r="23" spans="2:10" ht="14">
       <c r="B23" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23" s="162">
         <v>140623</v>
@@ -15444,7 +15598,7 @@
     </row>
     <row r="24" spans="2:10" ht="14">
       <c r="B24" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24" s="162">
         <v>157477</v>
@@ -15463,7 +15617,7 @@
     </row>
     <row r="25" spans="2:10" ht="14">
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="162">
         <v>28282</v>
@@ -15482,7 +15636,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="162">
         <f>1381+227381</f>
@@ -15505,7 +15659,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="245" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -15513,7 +15667,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1">
       <c r="B28" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C28" s="165">
         <f>SUM(C11:C13)</f>
@@ -15533,7 +15687,7 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="265">
         <f>I11+I12+I13</f>
@@ -15542,7 +15696,7 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1">
       <c r="B29" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C29" s="165">
         <f>SUM(C14:C17)</f>
@@ -15559,7 +15713,7 @@
       <c r="F29" s="212"/>
       <c r="G29" s="6"/>
       <c r="H29" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I29" s="265">
         <f>SUM(I14:I16)</f>
@@ -15568,7 +15722,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1">
       <c r="B30" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C30" s="165">
         <f>SUM(C18:C19)</f>
@@ -15588,9 +15742,9 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="I30" s="333">
+        <v>306</v>
+      </c>
+      <c r="I30" s="272">
         <f>(I3-C32)/I33</f>
         <v>6.5130270877983829E-2</v>
       </c>
@@ -15601,7 +15755,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1">
       <c r="B31" s="41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C31" s="165">
         <f>SUM(C20:C23)</f>
@@ -15618,9 +15772,9 @@
       <c r="F31" s="212"/>
       <c r="G31" s="6"/>
       <c r="H31" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="I31" s="333">
+        <v>311</v>
+      </c>
+      <c r="I31" s="272">
         <f>E28/($I$33-I17)</f>
         <v>0.12492209982532348</v>
       </c>
@@ -15630,14 +15784,14 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="330" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="331">
+      <c r="B32" s="269" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="270">
         <f>C24+C25+C26</f>
         <v>414521</v>
       </c>
-      <c r="D32" s="332">
+      <c r="D32" s="271">
         <f t="shared" ref="D32" si="3">IF(E32=0,0,E32/C32)</f>
         <v>0.47128022464483099</v>
       </c>
@@ -15651,9 +15805,9 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" s="333">
+        <v>308</v>
+      </c>
+      <c r="I32" s="272">
         <f>E33/I33</f>
         <v>0.7656053182469339</v>
       </c>
@@ -15664,7 +15818,7 @@
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B33" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" s="165">
         <f>SUM(C28:C32)</f>
@@ -15681,7 +15835,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="264" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I33" s="173">
         <v>35312689</v>
@@ -15699,14 +15853,14 @@
     </row>
     <row r="35" spans="2:10" ht="14">
       <c r="B35" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="31"/>
     </row>
     <row r="36" spans="2:10" ht="14">
       <c r="B36" s="102" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="244" t="str">
@@ -15721,7 +15875,7 @@
     </row>
     <row r="37" spans="2:10" ht="14">
       <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="263">
         <f>D4</f>
@@ -15751,11 +15905,11 @@
     </row>
     <row r="39" spans="2:10" ht="14">
       <c r="B39" s="44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="245" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="15"/>
@@ -15765,7 +15919,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1">
       <c r="B40" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="175">
         <f>C15+C16+(C21*G21)+(C22*G22)</f>
@@ -15786,7 +15940,7 @@
     </row>
     <row r="41" spans="2:10" ht="14">
       <c r="B41" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="175">
         <f>C11+C12</f>
@@ -15807,14 +15961,14 @@
     </row>
     <row r="42" spans="2:10" ht="14">
       <c r="B42" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="324">
+      <c r="D42" s="309">
         <f>((Dashboard!I6*Data!C4)+E37-C40-C41)</f>
         <v>3637384552</v>
       </c>
-      <c r="E42" s="324"/>
+      <c r="E42" s="309"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -15856,7 +16010,7 @@
   <dimension ref="A1:L873"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="108" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -15877,7 +16031,7 @@
     <row r="2" spans="1:12" ht="15.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -15886,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" s="111">
         <v>1</v>
@@ -15934,19 +16088,19 @@
         <v/>
       </c>
       <c r="K3" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="113" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="342"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="342">
+        <v>279</v>
+      </c>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279">
         <v>674723</v>
       </c>
-      <c r="F4" s="342">
+      <c r="F4" s="279">
         <v>503773</v>
       </c>
       <c r="G4" s="187"/>
@@ -15958,14 +16112,14 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="113" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="343"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="343">
+        <v>323</v>
+      </c>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169">
         <v>463922</v>
       </c>
-      <c r="F5" s="343">
+      <c r="F5" s="169">
         <v>362568</v>
       </c>
       <c r="G5" s="179"/>
@@ -15977,14 +16131,14 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="343"/>
-      <c r="D6" s="343"/>
-      <c r="E6" s="343">
+        <v>324</v>
+      </c>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169">
         <v>32405</v>
       </c>
-      <c r="F6" s="343">
+      <c r="F6" s="169">
         <v>34776</v>
       </c>
       <c r="G6" s="179"/>
@@ -15996,14 +16150,14 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="113" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="343"/>
-      <c r="D7" s="343"/>
-      <c r="E7" s="343">
+        <v>325</v>
+      </c>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169">
         <v>26963</v>
       </c>
-      <c r="F7" s="343">
+      <c r="F7" s="169">
         <v>23083</v>
       </c>
       <c r="G7" s="179"/>
@@ -16015,27 +16169,27 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="181">
+        <v>75</v>
+      </c>
+      <c r="C8" s="181" t="str">
         <f>Data!F7</f>
-        <v>699593</v>
-      </c>
-      <c r="D8" s="181">
+        <v/>
+      </c>
+      <c r="D8" s="181" t="str">
         <f>Data!E7</f>
-        <v>1028541</v>
+        <v/>
       </c>
       <c r="E8" s="181">
         <f>Data!D7</f>
-        <v>1198013</v>
+        <v>721746</v>
       </c>
       <c r="F8" s="181">
         <f>Data!C7</f>
-        <v>924200</v>
+        <v>725499</v>
       </c>
       <c r="G8" s="182">
         <f>F8*0.75</f>
-        <v>693150</v>
+        <v>544124.25</v>
       </c>
       <c r="H8" s="182"/>
       <c r="I8" s="183"/>
@@ -16045,20 +16199,20 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C9" s="247"/>
-      <c r="D9" s="157">
+      <c r="D9" s="157" t="e">
         <f>D8/C8-1</f>
-        <v>0.47019910147757349</v>
-      </c>
-      <c r="E9" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="157" t="e">
         <f>E8/D8-1</f>
-        <v>0.16476931887012758</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" s="157">
         <f>Data!C8</f>
-        <v>-0.22855595056147138</v>
+        <v>5.1998902661047897E-3</v>
       </c>
       <c r="G9" s="136">
         <f>G8/F8-1</f>
@@ -16072,27 +16226,27 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="184">
-        <f>Data!F15</f>
-        <v>336621</v>
-      </c>
-      <c r="D10" s="184">
-        <f>Data!E15</f>
-        <v>398163</v>
-      </c>
-      <c r="E10" s="184">
-        <f>Data!D15</f>
-        <v>270763</v>
-      </c>
-      <c r="F10" s="184">
-        <f>Data!C15</f>
-        <v>149665</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="184" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="184" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="184" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="184" t="e">
+        <f>Data!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G10" s="185">
         <f>G8*(1-G11)</f>
-        <v>194082.00000000003</v>
+        <v>152354.79</v>
       </c>
       <c r="H10" s="186" t="str">
         <f>IF(H8="","",H8*(1-H11))</f>
@@ -16108,23 +16262,23 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="94">
+        <v>43</v>
+      </c>
+      <c r="C11" s="94" t="e">
         <f t="shared" ref="C11:E11" si="0">(C8-C10)/C8</f>
-        <v>0.51883309295547553</v>
-      </c>
-      <c r="D11" s="94">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="94" t="e">
         <f t="shared" si="0"/>
-        <v>0.61288563119992301</v>
-      </c>
-      <c r="E11" s="94">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="94" t="e">
         <f t="shared" si="0"/>
-        <v>0.77398993166184338</v>
-      </c>
-      <c r="F11" s="94">
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="94" t="e">
         <f>(F8-F10)/F8</f>
-        <v>0.83805994373512227</v>
+        <v>#REF!</v>
       </c>
       <c r="G11" s="190">
         <v>0.72</v>
@@ -16136,27 +16290,27 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="51">
+        <v>242</v>
+      </c>
+      <c r="C12" s="51" t="e">
         <f>C8-C10</f>
-        <v>362972</v>
-      </c>
-      <c r="D12" s="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="51" t="e">
         <f t="shared" ref="D12:E12" si="1">D8-D10</f>
-        <v>630378</v>
-      </c>
-      <c r="E12" s="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="51" t="e">
         <f t="shared" si="1"/>
-        <v>927250</v>
-      </c>
-      <c r="F12" s="51">
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="51" t="e">
         <f>F8-F10</f>
-        <v>774535</v>
+        <v>#REF!</v>
       </c>
       <c r="G12" s="51">
         <f>G8-G10</f>
-        <v>499068</v>
+        <v>391769.45999999996</v>
       </c>
       <c r="H12" s="51" t="str">
         <f>IF(H9="","",H8-H10)</f>
@@ -16171,27 +16325,27 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="54">
+        <v>45</v>
+      </c>
+      <c r="C13" s="54" t="e">
         <f>C14/C8</f>
-        <v>0.13485983993550535</v>
-      </c>
-      <c r="D13" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="54" t="e">
         <f t="shared" ref="D13:E13" si="2">D14/D8</f>
-        <v>0.12077496181484258</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E13" s="54">
         <f t="shared" si="2"/>
-        <v>0.29749343287593705</v>
+        <v>0.36061855555832661</v>
       </c>
       <c r="F13" s="54">
         <f>F14/F8</f>
-        <v>0.43081475871023589</v>
+        <v>0.37770279490392128</v>
       </c>
       <c r="G13" s="189">
         <f>G14/G8</f>
-        <v>0.60314066219433027</v>
+        <v>0.52878391286548987</v>
       </c>
       <c r="H13" s="163"/>
       <c r="I13" s="163"/>
@@ -16200,27 +16354,27 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="181">
-        <f>Data!F17</f>
-        <v>94347</v>
+        <f>Data!F15</f>
+        <v>0</v>
       </c>
       <c r="D14" s="181">
-        <f>Data!E17</f>
-        <v>124222</v>
+        <f>Data!E15</f>
+        <v>0</v>
       </c>
       <c r="E14" s="181">
-        <f>Data!D17</f>
-        <v>356401</v>
+        <f>Data!D15</f>
+        <v>260275</v>
       </c>
       <c r="F14" s="181">
-        <f>Data!C17</f>
-        <v>398159</v>
+        <f>Data!C15</f>
+        <v>274023</v>
       </c>
       <c r="G14" s="147">
         <f>F14*1.05</f>
-        <v>418066.95</v>
+        <v>287724.15000000002</v>
       </c>
       <c r="H14" s="147"/>
       <c r="I14" s="147"/>
@@ -16229,27 +16383,27 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="152">
+        <v>46</v>
+      </c>
+      <c r="C15" s="152" t="e">
         <f t="shared" ref="C15:E15" si="3">C17/C8</f>
-        <v>0.38397325301997021</v>
-      </c>
-      <c r="D15" s="152">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="152" t="e">
         <f t="shared" si="3"/>
-        <v>0.49211066938508041</v>
-      </c>
-      <c r="E15" s="152">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="152" t="e">
         <f t="shared" si="3"/>
-        <v>0.47649649878590633</v>
-      </c>
-      <c r="F15" s="152">
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="152" t="e">
         <f>F17/F8</f>
-        <v>0.40724518502488638</v>
+        <v>#REF!</v>
       </c>
       <c r="G15" s="152">
         <f>G17/G8</f>
-        <v>0.11685933780566975</v>
+        <v>0.19121608713451008</v>
       </c>
       <c r="H15" s="152" t="str">
         <f>IF(H9="","",H17/H8)</f>
@@ -16265,24 +16419,24 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="247"/>
-      <c r="D16" s="157">
+      <c r="D16" s="157" t="e">
         <f t="shared" ref="D16:E16" si="4">D17/C17-1</f>
-        <v>0.8842475570032573</v>
-      </c>
-      <c r="E16" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="157" t="e">
         <f t="shared" si="4"/>
-        <v>0.12781237405068802</v>
-      </c>
-      <c r="F16" s="157">
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="157" t="e">
         <f>F17/E17-1</f>
-        <v>-0.34067327787208179</v>
-      </c>
-      <c r="G16" s="136">
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="136" t="e">
         <f>IF(ABS(F17+G17)=ABS(F17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-F17)/F17,"Turn")</f>
-        <v>-0.78478688864327162</v>
+        <v>#REF!</v>
       </c>
       <c r="H16" s="136" t="str">
         <f>IF(H9="","",IF(ABS(G17+H17)=ABS(G17)+ABS(H17),IF(H17&lt;0,-1,1)*(H17-G17)/G17,"Turn"))</f>
@@ -16298,27 +16452,27 @@
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="140">
+        <v>152</v>
+      </c>
+      <c r="C17" s="140" t="e">
         <f t="shared" ref="C17:D17" si="5">C12-C14</f>
-        <v>268625</v>
-      </c>
-      <c r="D17" s="140">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="140" t="e">
         <f t="shared" si="5"/>
-        <v>506156</v>
-      </c>
-      <c r="E17" s="140">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="140" t="e">
         <f>E12-E14</f>
-        <v>570849</v>
-      </c>
-      <c r="F17" s="140">
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="140" t="e">
         <f>F12-F14</f>
-        <v>376376</v>
+        <v>#REF!</v>
       </c>
       <c r="G17" s="140">
         <f>G12-G14</f>
-        <v>81001.049999999988</v>
+        <v>104045.30999999994</v>
       </c>
       <c r="H17" s="140" t="str">
         <f>IF(H9="","",H12-H14)</f>
@@ -16334,7 +16488,7 @@
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
       <c r="B18" s="191" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="246"/>
       <c r="D18" s="246"/>
@@ -16358,18 +16512,18 @@
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1">
       <c r="B19" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="247"/>
       <c r="D19" s="247"/>
       <c r="E19" s="247"/>
-      <c r="F19" s="157">
+      <c r="F19" s="157" t="e">
         <f>F20/F8</f>
-        <v>0.30543388876866479</v>
+        <v>#REF!</v>
       </c>
       <c r="G19" s="136">
         <f>G20/G8</f>
-        <v>8.7644503354252321E-2</v>
+        <v>0.14341206535088255</v>
       </c>
       <c r="H19" s="136" t="str">
         <f>IF(H8="","",H20/H8)</f>
@@ -16382,18 +16536,18 @@
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="248"/>
       <c r="D20" s="248"/>
       <c r="E20" s="248"/>
-      <c r="F20" s="51">
+      <c r="F20" s="51" t="e">
         <f>IF(F17&lt;=0,F17,F17*(1-F18))</f>
-        <v>282282</v>
+        <v>#REF!</v>
       </c>
       <c r="G20" s="192">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
-        <v>60750.787499999991</v>
+        <v>78033.982499999955</v>
       </c>
       <c r="H20" s="192" t="str">
         <f>IF(H17="","",IF(H17&lt;=0,H17,H17*(1-H18)))</f>
@@ -16406,12 +16560,12 @@
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1"/>
@@ -17268,7 +17422,7 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="G18:G20">
-    <cfRule type="containsBlanks" dxfId="5" priority="22">
+    <cfRule type="containsBlanks" dxfId="6" priority="22">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17278,12 +17432,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H20">
-    <cfRule type="containsBlanks" dxfId="4" priority="30">
+    <cfRule type="containsBlanks" dxfId="5" priority="30">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsBlanks" dxfId="3" priority="24">
+    <cfRule type="containsBlanks" dxfId="4" priority="24">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17293,7 +17447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I20">
-    <cfRule type="containsBlanks" dxfId="2" priority="26">
+    <cfRule type="containsBlanks" dxfId="3" priority="26">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17306,7 +17460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E447FE51-02F8-43AE-9637-7A64EC664BCA}">
   <dimension ref="B18:S125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="88" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -17371,7 +17525,7 @@
     </row>
     <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C19" s="266"/>
       <c r="D19" s="266"/>
@@ -17395,7 +17549,7 @@
     </row>
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="266"/>
       <c r="D20" s="266"/>
@@ -17419,7 +17573,7 @@
     </row>
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C21" s="266"/>
       <c r="D21" s="266"/>
@@ -17443,7 +17597,7 @@
     </row>
     <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C22" s="266"/>
       <c r="D22" s="266"/>
@@ -17467,7 +17621,7 @@
     </row>
     <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" s="266"/>
       <c r="D23" s="266"/>
@@ -17532,7 +17686,7 @@
     </row>
     <row r="46" spans="2:13" ht="13">
       <c r="B46" s="256" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -17625,7 +17779,7 @@
     </row>
     <row r="71" spans="2:13" ht="13">
       <c r="B71" s="256" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -17677,7 +17831,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="251" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C73" s="255"/>
       <c r="D73" s="255"/>
@@ -17693,7 +17847,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="251" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C74" s="252"/>
       <c r="D74" s="252"/>
@@ -17709,7 +17863,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="251" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C75" s="252"/>
       <c r="D75" s="252"/>
@@ -17725,7 +17879,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="251" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J76" s="255"/>
       <c r="K76" s="255"/>
@@ -17734,7 +17888,7 @@
     </row>
     <row r="78" spans="2:13" ht="13">
       <c r="B78" s="256" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -17785,7 +17939,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="251" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J80" s="254"/>
       <c r="K80" s="254"/>
@@ -17794,7 +17948,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="251" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J81" s="254"/>
       <c r="K81" s="254"/>
@@ -17803,7 +17957,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="251" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J82" s="255"/>
       <c r="K82" s="255"/>
@@ -17847,28 +18001,28 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J104" s="257">
-        <f>Data!F25</f>
-        <v>-1081638</v>
+        <f>Data!F24</f>
+        <v>0</v>
       </c>
       <c r="K104" s="257">
-        <f>Data!E25</f>
-        <v>-717056</v>
+        <f>Data!E24</f>
+        <v>0</v>
       </c>
       <c r="L104" s="257">
-        <f>Data!D25</f>
-        <v>-12991790</v>
+        <f>Data!D24</f>
+        <v>241936</v>
       </c>
       <c r="M104" s="257">
-        <f>Data!C25</f>
-        <v>-13458</v>
+        <f>Data!C24</f>
+        <v>259140</v>
       </c>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J105" s="257" t="e">
         <f>Data!#REF!</f>
@@ -17889,47 +18043,47 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J106" s="257">
-        <f>Data!F34</f>
+        <f>Data!F33</f>
         <v>0</v>
       </c>
       <c r="K106" s="257">
-        <f>Data!E34</f>
+        <f>Data!E33</f>
         <v>0</v>
       </c>
       <c r="L106" s="257">
+        <f>Data!D33</f>
+        <v>78677</v>
+      </c>
+      <c r="M106" s="257">
+        <f>Data!C33</f>
+        <v>87681</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" t="s">
+        <v>257</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" s="257">
         <f>Data!D34</f>
         <v>0</v>
       </c>
-      <c r="M106" s="257">
+      <c r="M107" s="257">
         <f>Data!C34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13">
-      <c r="B107" t="s">
-        <v>260</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" s="257">
-        <f>Data!D35</f>
-        <v>246343</v>
-      </c>
-      <c r="M107" s="257">
-        <f>Data!C35</f>
-        <v>58526</v>
-      </c>
-    </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J108" s="257" t="e">
         <f>Data!#REF!</f>
@@ -17950,7 +18104,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J111" s="257">
         <v>1315974</v>
@@ -17967,7 +18121,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J112" s="257">
         <v>3886094</v>
@@ -17984,7 +18138,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="251" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J113" s="258">
         <v>1.3370230781251284</v>
@@ -18060,8 +18214,8 @@
   </sheetPr>
   <dimension ref="A1:J891"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -18082,10 +18236,10 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="111">
         <v>1</v>
@@ -18125,23 +18279,23 @@
         <v/>
       </c>
       <c r="G3" s="178" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="334" t="s">
-        <v>318</v>
+      <c r="B4" s="273" t="s">
+        <v>315</v>
       </c>
       <c r="C4" s="221">
         <f>IF(B4="NOPAT",Projections!F20,Projections!F8)/(Common_Shares/Data!$C$4)</f>
-        <v>458.12348812309159</v>
+        <v>359.62792957132098</v>
       </c>
       <c r="D4" s="222">
         <f>IF(B4="NOPAT",Projections!G20,Projections!G8)/(Common_Shares/Data!$C$4)</f>
-        <v>343.59261609231868</v>
+        <v>269.72094717849069</v>
       </c>
       <c r="E4" s="222" t="str">
         <f>IF(Projections!H8="","",IF(B4="NOPAT",Projections!H20,Projections!H8)/(Common_Shares/Data!$C$4))</f>
@@ -18167,7 +18321,7 @@
       <c r="C5" s="100"/>
       <c r="D5" s="220">
         <f>D4/C4-1</f>
-        <v>-0.25</v>
+        <v>-0.25000000000000011</v>
       </c>
       <c r="E5" s="220" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
@@ -18184,7 +18338,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C6" s="157">
         <v>0.3</v>
@@ -18200,7 +18354,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="B7" s="101" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C7" s="153">
         <v>0.8</v>
@@ -18217,7 +18371,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C8" s="224"/>
       <c r="D8" s="136" t="str">
@@ -18242,7 +18396,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="227" t="str">
@@ -18297,16 +18451,16 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="98" t="str">
         <f>B3</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="E12" s="327" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="327"/>
+      <c r="E12" s="338" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="338"/>
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -18314,14 +18468,14 @@
         <f>"TV after Year "&amp;G4</f>
         <v>TV after Year 1</v>
       </c>
-      <c r="C13" s="337" t="s">
-        <v>322</v>
+      <c r="C13" s="55" t="s">
+        <v>319</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" s="241" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" s="104" t="str">
         <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
@@ -18335,7 +18489,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="219">
         <v>0.02</v>
@@ -18357,11 +18511,11 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="22"/>
-      <c r="C15" s="339"/>
-      <c r="D15" s="338"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="276"/>
       <c r="E15" s="215"/>
-      <c r="F15" s="341" t="s">
-        <v>324</v>
+      <c r="F15" s="278" t="s">
+        <v>321</v>
       </c>
       <c r="G15" s="96"/>
       <c r="I15" s="43"/>
@@ -18369,8 +18523,8 @@
     <row r="16" spans="1:10" ht="15.5" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="F16" s="340" t="s">
-        <v>323</v>
+      <c r="F16" s="277" t="s">
+        <v>320</v>
       </c>
       <c r="G16" s="134"/>
     </row>
@@ -18378,25 +18532,25 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="231" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H18" s="84"/>
       <c r="I18" s="101"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="B19" s="76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="238" t="e">
         <f>MIN(G16,#REF!)+ABS(G16-#REF!)*Qualitative_Analysis!$E$8</f>
@@ -18422,7 +18576,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="232">
         <v>3</v>
@@ -18441,13 +18595,13 @@
       </c>
       <c r="G20" s="202">
         <f>(C20*Common_Shares)/(Data!$C$7*Data!$C$4*Exchange_Rate)</f>
-        <v>6.0520963035466486E-3</v>
+        <v>7.7096555663588966E-3</v>
       </c>
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="B21" s="234" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" s="235" t="e">
         <f>MIN(C20,C19)+ABS(C20-C19)*Qualitative_Analysis!E64</f>
@@ -18472,7 +18626,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="B22" s="84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="236" t="e">
         <f>MAX(#REF!,C19)/(1+Dashboard!I14)</f>
@@ -19369,14 +19523,14 @@
     <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D10 E4:F10">
+  <conditionalFormatting sqref="D14:G15">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F10 D8:D10">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:G15">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -19392,7 +19546,7 @@
   <dimension ref="A2:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -19410,18 +19564,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="12"/>
       <c r="E2" s="6"/>
       <c r="G2" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="58">
@@ -19429,13 +19583,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="195" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="58">
@@ -19443,13 +19597,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="58">
@@ -19464,7 +19618,7 @@
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="58">
@@ -19479,7 +19633,7 @@
     </row>
     <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="63">
@@ -19487,13 +19641,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="58">
@@ -19515,7 +19669,7 @@
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -19524,7 +19678,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="B11" s="62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="57"/>
       <c r="E11" s="6"/>
@@ -19532,79 +19686,79 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="B12" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="63">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E12" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="114"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="B13" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="63">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E13" s="158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="114"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="B14" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="63">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E14" s="158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="114" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="B15" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="63">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E15" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="114"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="B16" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="63">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E16" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="114"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="18"/>
@@ -19612,77 +19766,77 @@
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" s="63" t="e">
         <f>Asset_Model!J33</f>
         <v>#REF!</v>
       </c>
       <c r="E18" s="158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="114"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="63">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E19" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="114"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="114"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="63">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E21" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="114"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
       <c r="B22" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E22" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="114"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
       <c r="B23" s="62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="18"/>
@@ -19690,77 +19844,77 @@
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1">
       <c r="B24" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="63">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E24" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="114"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
       <c r="B25" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E25" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="114"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
       <c r="B26" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E26" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="114"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1">
       <c r="B27" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E27" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="114"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1">
       <c r="B28" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E28" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="114"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1">
       <c r="B29" s="62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="18"/>
@@ -19768,7 +19922,7 @@
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="64">
         <f>SUM(D31:D35)/(5*4)</f>
@@ -19783,78 +19937,78 @@
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1">
       <c r="B31" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="63">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E31" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="114"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1">
       <c r="B32" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E32" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="114"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1">
       <c r="B33" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="114"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1">
       <c r="B34" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E34" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="114"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1">
       <c r="B35" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" s="63">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E35" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" s="114" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="64">
         <f>SUM(D37:D41)/(5*4)</f>
@@ -19869,76 +20023,76 @@
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1">
       <c r="B37" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="63">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E37" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="114"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1">
       <c r="B38" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D38" s="63">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E38" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="114"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1">
       <c r="B39" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D39" s="63">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E39" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="114"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1">
       <c r="B40" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D40" s="63">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E40" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="114"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1">
       <c r="B41" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D41" s="63">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E41" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G41" s="114"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="64">
         <f>SUM(D43:D48)/(6*4)</f>
@@ -19953,91 +20107,91 @@
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1">
       <c r="B43" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D43" s="63">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>1</v>
       </c>
       <c r="E43" s="158" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="114"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1">
       <c r="B44" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="63">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E44" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="114"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1">
       <c r="B45" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="63">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E45" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="114"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1">
       <c r="B46" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E46" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="114"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1">
       <c r="B47" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="63">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E47" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="114"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1">
       <c r="B48" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="63">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E48" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="114"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" s="64">
         <f>SUM(D50:D54)/(5*4)</f>
@@ -20052,54 +20206,54 @@
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="63">
         <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E50" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G50" s="114"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="63">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E51" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="114"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D52" s="63">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E52" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G52" s="114"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D53" s="63">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E53" s="158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="114"/>
@@ -20107,14 +20261,14 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D54" s="65">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>3.8639455782312924</v>
       </c>
       <c r="E54" s="158" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="114"/>
@@ -20122,7 +20276,7 @@
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D55" s="66">
         <f>SUM(D56:D61)/(6*4)</f>
@@ -20138,14 +20292,14 @@
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
       <c r="B56" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="63">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E56" s="158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="114"/>
@@ -20153,14 +20307,14 @@
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
       <c r="B57" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D57" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E57" s="158" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="114"/>
@@ -20168,14 +20322,14 @@
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
       <c r="B58" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D58" s="63">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E58" s="158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="114"/>
@@ -20183,14 +20337,14 @@
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
       <c r="B59" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D59" s="63">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E59" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="114"/>
@@ -20198,14 +20352,14 @@
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
       <c r="B60" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D60" s="63">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E60" s="158" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="114"/>
@@ -20213,14 +20367,14 @@
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
       <c r="B61" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D61" s="63">
         <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E61" s="158" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="114"/>
@@ -20228,7 +20382,7 @@
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
       <c r="B62" s="87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" s="80">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
@@ -20249,7 +20403,7 @@
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
       <c r="B64" s="61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D64" s="58">
         <f>E64*4</f>
@@ -20263,7 +20417,7 @@
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1">
       <c r="B66" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -20271,7 +20425,7 @@
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1">
       <c r="B67" s="67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" s="68"/>
       <c r="D67" s="68"/>
@@ -20279,7 +20433,7 @@
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1">
       <c r="B68" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="68"/>
       <c r="D68" s="68">
@@ -20296,7 +20450,7 @@
         <v>Information Technology Like, 6.6y</v>
       </c>
       <c r="C69" s="68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D69" s="68">
         <v>6.6</v>
@@ -20312,7 +20466,7 @@
         <v>Healthcare, 11.4y</v>
       </c>
       <c r="C70" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D70" s="68">
         <v>11.4</v>
@@ -20328,7 +20482,7 @@
         <v>Consumer Discretionary, 12.4y</v>
       </c>
       <c r="C71" s="68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D71" s="68">
         <v>12.4</v>
@@ -20344,7 +20498,7 @@
         <v>Consumer Staples, 15.1y</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D72" s="68">
         <v>15.1</v>
@@ -20360,7 +20514,7 @@
         <v>Industrials, 15.4y</v>
       </c>
       <c r="C73" s="68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D73" s="68">
         <v>15.4</v>
@@ -20376,7 +20530,7 @@
         <v>Telecommunication Services, 16.1y</v>
       </c>
       <c r="C74" s="68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" s="68">
         <v>16.100000000000001</v>
@@ -20392,7 +20546,7 @@
         <v>Energy, 17.6y</v>
       </c>
       <c r="C75" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D75" s="68">
         <v>17.600000000000001</v>
@@ -20408,7 +20562,7 @@
         <v>Materials, 18.6y</v>
       </c>
       <c r="C76" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D76" s="68">
         <v>18.600000000000001</v>
@@ -20424,7 +20578,7 @@
         <v>Utilities, 29.4y</v>
       </c>
       <c r="C77" s="73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D77" s="73">
         <v>29.4</v>

--- a/financial_models/Model_templates/Listed_template/Bank_Valuation.xlsx
+++ b/financial_models/Model_templates/Listed_template/Bank_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Model_templates\Listed_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FC7E2-38C1-4E06-B0F1-22E63CF65905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8CE655-736B-4C27-B1CB-305A154B79D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2603,84 +2603,42 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2688,6 +2646,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2704,9 +2663,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2719,6 +2685,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2731,31 +2706,56 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2767,14 +2767,6 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{CBC32539-64A2-4336-9F96-B2D4C540D867}"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2817,6 +2809,14 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9969,27 +9969,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="310" t="s">
+      <c r="C3" s="296" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="311"/>
+      <c r="D3" s="297"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="319" t="s">
+      <c r="I3" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="319"/>
+      <c r="J3" s="308"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="312" t="s">
+      <c r="C4" s="298" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="281"/>
+      <c r="D4" s="299"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10006,10 +10006,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="313">
+      <c r="C5" s="300">
         <v>45191</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="299"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10017,10 +10017,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="280">
+      <c r="I5" s="309">
         <v>2017360000</v>
       </c>
-      <c r="J5" s="280"/>
+      <c r="J5" s="309"/>
       <c r="K5" s="89"/>
       <c r="L5" s="52"/>
     </row>
@@ -10043,11 +10043,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="320">
+      <c r="I6" s="310">
         <f>I4*I5/1000000</f>
         <v>3651.4216000000001</v>
       </c>
-      <c r="J6" s="320"/>
+      <c r="J6" s="310"/>
       <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10122,30 +10122,30 @@
       <c r="B11" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="290">
+      <c r="C11" s="321">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="291"/>
+      <c r="D11" s="322"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="319" t="s">
+      <c r="I11" s="308" t="s">
         <v>273</v>
       </c>
-      <c r="J11" s="319"/>
+      <c r="J11" s="308"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="326">
+      <c r="C12" s="319">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="327"/>
+      <c r="D12" s="320"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10214,28 +10214,28 @@
         <f>I4</f>
         <v>1.81</v>
       </c>
-      <c r="C16" s="306">
+      <c r="C16" s="333">
         <v>0.2</v>
       </c>
       <c r="D16" s="217" t="e">
         <f>I37/B16-(1+C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="300" t="s">
+      <c r="E16" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="321" t="e">
+      <c r="F16" s="311" t="e">
         <f>(Val_Models!#REF!)*Exchange_Rate</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="300" t="s">
+      <c r="G16" s="314" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="218" t="e">
         <f>B16-$F$16</f>
         <v>#REF!</v>
       </c>
-      <c r="I16" s="295">
+      <c r="I16" s="327">
         <v>0</v>
       </c>
       <c r="J16" s="152">
@@ -10248,19 +10248,19 @@
         <f>MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>#REF!</v>
       </c>
-      <c r="C17" s="307"/>
+      <c r="C17" s="334"/>
       <c r="D17" s="136" t="e">
         <f>I37/B17-(1+C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="301"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="301"/>
+      <c r="E17" s="315"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="315"/>
       <c r="H17" s="215" t="e">
         <f>B17-$F$16</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="296"/>
+      <c r="I17" s="328"/>
       <c r="J17" s="136" t="e">
         <f>I16/B17</f>
         <v>#REF!</v>
@@ -10271,19 +10271,19 @@
         <f>C37</f>
         <v>1.8</v>
       </c>
-      <c r="C18" s="308"/>
+      <c r="C18" s="335"/>
       <c r="D18" s="216" t="e">
         <f>I37/B18-(1+C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="302"/>
-      <c r="F18" s="323"/>
-      <c r="G18" s="302"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="313"/>
+      <c r="G18" s="316"/>
       <c r="H18" s="96" t="e">
         <f>B18-$F$16</f>
         <v>#REF!</v>
       </c>
-      <c r="I18" s="297"/>
+      <c r="I18" s="329"/>
       <c r="J18" s="144">
         <f>I16/B18</f>
         <v>0</v>
@@ -10321,72 +10321,72 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="316" t="s">
+      <c r="C21" s="303" t="s">
         <v>318</v>
       </c>
-      <c r="D21" s="317"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="318"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="318"/>
-      <c r="I21" s="318"/>
-      <c r="J21" s="318"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
+      <c r="H21" s="305"/>
+      <c r="I21" s="305"/>
+      <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="325"/>
-      <c r="D22" s="311"/>
-      <c r="E22" s="311"/>
-      <c r="F22" s="311"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="311"/>
-      <c r="J22" s="311"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="297"/>
+      <c r="J22" s="297"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
+      <c r="C23" s="306"/>
+      <c r="D23" s="307"/>
+      <c r="E23" s="307"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="306"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="307"/>
+      <c r="J23" s="307"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="328"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="328"/>
-      <c r="I24" s="328"/>
-      <c r="J24" s="328"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
+      <c r="E24" s="281"/>
+      <c r="F24" s="281"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="281"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="281"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="329"/>
-      <c r="D25" s="329"/>
-      <c r="E25" s="329"/>
-      <c r="F25" s="329"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="329"/>
-      <c r="J25" s="329"/>
+      <c r="C25" s="282"/>
+      <c r="D25" s="282"/>
+      <c r="E25" s="282"/>
+      <c r="F25" s="282"/>
+      <c r="G25" s="282"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="282"/>
+      <c r="J25" s="282"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10426,214 +10426,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="314">
+      <c r="C28" s="301">
         <v>45180</v>
       </c>
-      <c r="D28" s="315"/>
-      <c r="E28" s="305" t="str">
+      <c r="D28" s="302"/>
+      <c r="E28" s="332" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="324" t="s">
+      <c r="F28" s="332"/>
+      <c r="G28" s="332"/>
+      <c r="H28" s="332"/>
+      <c r="I28" s="317" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="324"/>
+      <c r="J28" s="317"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="294">
+      <c r="C29" s="326">
         <f>C33/D27</f>
         <v>8.1818181818181818E-2</v>
       </c>
-      <c r="D29" s="288"/>
-      <c r="E29" s="293">
+      <c r="D29" s="325"/>
+      <c r="E29" s="324">
         <f>E33/D27</f>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F29" s="288"/>
-      <c r="G29" s="304">
+      <c r="F29" s="325"/>
+      <c r="G29" s="331">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="304"/>
-      <c r="I29" s="303">
+      <c r="H29" s="331"/>
+      <c r="I29" s="330">
         <f>C29+E29+G29</f>
         <v>0.15454545454545454</v>
       </c>
-      <c r="J29" s="303"/>
+      <c r="J29" s="330"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="280">
+      <c r="C30" s="309">
         <v>30000</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="280">
+      <c r="D30" s="299"/>
+      <c r="E30" s="309">
         <v>30000</v>
       </c>
-      <c r="F30" s="281"/>
-      <c r="G30" s="280"/>
-      <c r="H30" s="280"/>
-      <c r="I30" s="309">
+      <c r="F30" s="299"/>
+      <c r="G30" s="309"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="336">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="309"/>
+      <c r="J30" s="336"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="282">
+      <c r="C31" s="323">
         <v>1.8</v>
       </c>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282">
+      <c r="D31" s="299"/>
+      <c r="E31" s="323">
         <v>1.6</v>
       </c>
-      <c r="F31" s="281"/>
-      <c r="G31" s="282"/>
-      <c r="H31" s="282"/>
-      <c r="I31" s="292"/>
-      <c r="J31" s="292"/>
+      <c r="F31" s="299"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="289">
+      <c r="C32" s="288">
         <f>C31*$I$5/1000000</f>
         <v>3631.248</v>
       </c>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289">
+      <c r="D32" s="325"/>
+      <c r="E32" s="288">
         <f>E31*$I$5/1000000</f>
         <v>3227.7759999999998</v>
       </c>
-      <c r="F32" s="288"/>
-      <c r="G32" s="289">
+      <c r="F32" s="325"/>
+      <c r="G32" s="288">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="289"/>
-      <c r="I32" s="292"/>
-      <c r="J32" s="292"/>
+      <c r="H32" s="288"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="285">
+      <c r="C33" s="289">
         <f>C30*C31</f>
         <v>54000</v>
       </c>
-      <c r="D33" s="286"/>
-      <c r="E33" s="285">
+      <c r="D33" s="338"/>
+      <c r="E33" s="289">
         <f>E30*E31</f>
         <v>48000</v>
       </c>
-      <c r="F33" s="286"/>
-      <c r="G33" s="285">
+      <c r="F33" s="338"/>
+      <c r="G33" s="289">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="285"/>
-      <c r="I33" s="285">
+      <c r="H33" s="289"/>
+      <c r="I33" s="289">
         <f>C33+E33+G33</f>
         <v>102000</v>
       </c>
-      <c r="J33" s="285"/>
+      <c r="J33" s="289"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="292"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="287">
+      <c r="C34" s="290"/>
+      <c r="D34" s="293"/>
+      <c r="E34" s="292">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.7</v>
       </c>
-      <c r="F34" s="288"/>
+      <c r="F34" s="325"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="287">
+      <c r="I34" s="292">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.7</v>
       </c>
-      <c r="J34" s="287"/>
+      <c r="J34" s="292"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="336"/>
-      <c r="D35" s="337"/>
-      <c r="E35" s="283">
+      <c r="C35" s="294"/>
+      <c r="D35" s="295"/>
+      <c r="E35" s="291">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="F35" s="284"/>
+      <c r="F35" s="337"/>
       <c r="G35" s="209"/>
       <c r="H35" s="209"/>
-      <c r="I35" s="283">
+      <c r="I35" s="291">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3429.5120000000002</v>
       </c>
-      <c r="J35" s="283"/>
+      <c r="J35" s="291"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="333">
+      <c r="C37" s="286">
         <f>C31</f>
         <v>1.8</v>
       </c>
-      <c r="D37" s="334"/>
+      <c r="D37" s="287"/>
       <c r="E37" s="79" t="e">
         <f>IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v>#REF!</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="330" t="s">
+      <c r="G37" s="283" t="s">
         <v>225</v>
       </c>
-      <c r="H37" s="330"/>
-      <c r="I37" s="331" t="e">
+      <c r="H37" s="283"/>
+      <c r="I37" s="284" t="e">
         <f>Val_Models!C21</f>
         <v>#REF!</v>
       </c>
-      <c r="J37" s="332"/>
+      <c r="J37" s="285"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="333">
+      <c r="C38" s="286">
         <f>E34</f>
         <v>1.7</v>
       </c>
-      <c r="D38" s="334"/>
+      <c r="D38" s="287"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="330" t="s">
+      <c r="G38" s="283" t="s">
         <v>204</v>
       </c>
-      <c r="H38" s="330"/>
-      <c r="I38" s="331" t="e">
+      <c r="H38" s="283"/>
+      <c r="I38" s="284" t="e">
         <f>Val_Models!C22</f>
         <v>#REF!</v>
       </c>
-      <c r="J38" s="332"/>
+      <c r="J38" s="285"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11835,6 +11835,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -11851,46 +11891,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12229,7 +12229,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="339" t="s">
+      <c r="B9" s="280" t="s">
         <v>281</v>
       </c>
       <c r="C9" s="51">
@@ -12324,7 +12324,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="339" t="s">
+      <c r="B12" s="280" t="s">
         <v>282</v>
       </c>
       <c r="C12" s="147">
@@ -12346,7 +12346,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="339" t="s">
+      <c r="B13" s="280" t="s">
         <v>283</v>
       </c>
       <c r="C13" s="147">
@@ -12370,7 +12370,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="339" t="s">
+      <c r="B14" s="280" t="s">
         <v>284</v>
       </c>
       <c r="C14" s="147">
@@ -12462,47 +12462,47 @@
         <v>45</v>
       </c>
       <c r="C18" s="136">
-        <f>IF(C7="","",C15/C7)</f>
+        <f t="shared" ref="C18:M18" si="4">IF(C7="","",C15/C7)</f>
         <v>0.37770279490392128</v>
       </c>
       <c r="D18" s="136">
-        <f>IF(D7="","",D15/D7)</f>
+        <f t="shared" si="4"/>
         <v>0.36061855555832661</v>
       </c>
       <c r="E18" s="136" t="str">
-        <f>IF(E7="","",E15/E7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F18" s="136" t="str">
-        <f>IF(F7="","",F15/F7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G18" s="136" t="str">
-        <f>IF(G7="","",G15/G7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H18" s="136" t="str">
-        <f>IF(H7="","",H15/H7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I18" s="136" t="str">
-        <f>IF(I7="","",I15/I7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J18" s="136" t="str">
-        <f>IF(J7="","",J15/J7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K18" s="136" t="str">
-        <f>IF(K7="","",K15/K7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L18" s="136" t="str">
-        <f>IF(L7="","",L15/L7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M18" s="136" t="str">
-        <f>IF(M7="","",M15/M7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N18" s="6"/>
@@ -12513,47 +12513,47 @@
         <v>46</v>
       </c>
       <c r="C19" s="136">
-        <f>IF(C20="","",C20/C7)</f>
+        <f t="shared" ref="C19:M19" si="5">IF(C20="","",C20/C7)</f>
         <v>0.42198541969044756</v>
       </c>
       <c r="D19" s="136">
-        <f>IF(D20="","",D20/D7)</f>
+        <f t="shared" si="5"/>
         <v>0.40938363357746355</v>
       </c>
       <c r="E19" s="136" t="str">
-        <f>IF(E20="","",E20/E7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F19" s="136" t="str">
-        <f>IF(F20="","",F20/F7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G19" s="136" t="str">
-        <f>IF(G20="","",G20/G7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H19" s="136" t="str">
-        <f>IF(H20="","",H20/H7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I19" s="136" t="str">
-        <f>IF(I20="","",I20/I7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J19" s="136" t="str">
-        <f>IF(J20="","",J20/J7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" s="136" t="str">
-        <f>IF(K20="","",K20/K7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L19" s="136" t="str">
-        <f>IF(L20="","",L20/L7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M19" s="136" t="str">
-        <f>IF(M20="","",M20/M7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N19" s="6"/>
@@ -12572,39 +12572,39 @@
         <v>295471</v>
       </c>
       <c r="E20" s="51" t="str">
-        <f t="shared" ref="E20:M20" si="4">IF(E7="","",E7-E15-E16-E17)</f>
+        <f t="shared" ref="E20:M20" si="6">IF(E7="","",E7-E15-E16-E17)</f>
         <v/>
       </c>
       <c r="F20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M20" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N20" s="6"/>
@@ -12619,43 +12619,43 @@
         <v>3.6142294844502508E-2</v>
       </c>
       <c r="D21" s="136" t="str">
-        <f t="shared" ref="D21:M21" si="5">IF(E20="","",IF(ABS(D20+E20)=ABS(D20)+ABS(E20),IF(D20&lt;0,-1,1)*(D20-E20)/E20,"Turn"))</f>
+        <f t="shared" ref="D21:M21" si="7">IF(E20="","",IF(ABS(D20+E20)=ABS(D20)+ABS(E20),IF(D20&lt;0,-1,1)*(D20-E20)/E20,"Turn"))</f>
         <v/>
       </c>
       <c r="E21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M21" s="136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N21" s="6"/>
@@ -12717,47 +12717,47 @@
         <v>50</v>
       </c>
       <c r="C23" s="136">
-        <f>IF(C7="","",C22/C7)</f>
+        <f t="shared" ref="C23:M23" si="8">IF(C7="","",C22/C7)</f>
         <v>0.31648906476783567</v>
       </c>
       <c r="D23" s="136">
-        <f>IF(D7="","",D22/D7)</f>
+        <f t="shared" si="8"/>
         <v>0.30703772518309763</v>
       </c>
       <c r="E23" s="136" t="str">
-        <f>IF(E7="","",E22/E7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F23" s="136" t="str">
-        <f>IF(F7="","",F22/F7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G23" s="136" t="str">
-        <f>IF(G7="","",G22/G7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H23" s="136" t="str">
-        <f>IF(H7="","",H22/H7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I23" s="136" t="str">
-        <f>IF(I7="","",I22/I7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J23" s="136" t="str">
-        <f>IF(J7="","",J22/J7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K23" s="136" t="str">
-        <f>IF(K7="","",K22/K7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L23" s="136" t="str">
-        <f>IF(L7="","",L22/L7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M23" s="136" t="str">
-        <f>IF(M7="","",M22/M7)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N23" s="6"/>
@@ -12794,43 +12794,43 @@
         <v>7.1109714965941401E-2</v>
       </c>
       <c r="D25" s="136" t="str">
-        <f t="shared" ref="D25:M25" si="6">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
+        <f t="shared" ref="D25:M25" si="9">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
       <c r="E25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M25" s="136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N25" s="6"/>
@@ -13041,47 +13041,47 @@
         <v>134</v>
       </c>
       <c r="C35" s="148">
-        <f t="shared" ref="C35:M35" si="7">IF(C33="","",C33*$C$4/Common_Shares)</f>
+        <f t="shared" ref="C35:M35" si="10">IF(C33="","",C33*$C$4/Common_Shares)</f>
         <v>43.463239084744416</v>
       </c>
       <c r="D35" s="148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>38.99998017210612</v>
       </c>
       <c r="E35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M35" s="148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N35" s="6"/>
@@ -13092,47 +13092,47 @@
         <v>135</v>
       </c>
       <c r="C36" s="150">
-        <f t="shared" ref="C36:M36" si="8">IF(C34="","",C34*$C$4/Common_Shares)</f>
+        <f t="shared" ref="C36:M36" si="11">IF(C34="","",C34*$C$4/Common_Shares)</f>
         <v>0</v>
       </c>
       <c r="D36" s="150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M36" s="150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N36" s="6"/>
@@ -13160,47 +13160,47 @@
         <v>248</v>
       </c>
       <c r="C38" s="152">
-        <f>IF(C30="","",(C26-C30)/C26)</f>
+        <f t="shared" ref="C38:M38" si="12">IF(C30="","",(C26-C30)/C26)</f>
         <v>0.92134966017128328</v>
       </c>
       <c r="D38" s="152">
-        <f>IF(D30="","",(D26-D30)/D26)</f>
+        <f t="shared" si="12"/>
         <v>0.91693583800423506</v>
       </c>
       <c r="E38" s="152" t="str">
-        <f>IF(E30="","",(E26-E30)/E26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F38" s="152" t="str">
-        <f>IF(F30="","",(F26-F30)/F26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G38" s="152" t="str">
-        <f>IF(G30="","",(G26-G30)/G26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H38" s="152" t="str">
-        <f>IF(H30="","",(H26-H30)/H26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I38" s="152" t="str">
-        <f>IF(I30="","",(I26-I30)/I26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J38" s="152" t="str">
-        <f>IF(J30="","",(J26-J30)/J26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K38" s="152" t="str">
-        <f>IF(K30="","",(K26-K30)/K26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L38" s="152" t="str">
-        <f>IF(L30="","",(L26-L30)/L26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M38" s="152" t="str">
-        <f>IF(M30="","",(M26-M30)/M26)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N38" s="6"/>
@@ -13219,39 +13219,39 @@
         <v>0.80081773920465094</v>
       </c>
       <c r="E39" s="136" t="str">
-        <f t="shared" ref="E39:M39" si="9">IF(E7="","",E9/E7)</f>
+        <f t="shared" ref="E39:M39" si="13">IF(E7="","",E9/E7)</f>
         <v/>
       </c>
       <c r="F39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M39" s="136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N39" s="6"/>
@@ -13270,39 +13270,39 @@
         <v>2.6383514369547407E-2</v>
       </c>
       <c r="E40" s="136" t="str">
-        <f t="shared" ref="E40:M40" si="10">IF(E9="","",IF(E9&lt;=0,"-",E9/E28))</f>
+        <f t="shared" ref="E40:M40" si="14">IF(E9="","",IF(E9&lt;=0,"-",E9/E28))</f>
         <v/>
       </c>
       <c r="F40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M40" s="136" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N40" s="6"/>
@@ -13321,39 +13321,39 @@
         <v>0.33520933957375587</v>
       </c>
       <c r="E41" s="136" t="str">
-        <f t="shared" ref="E41:M41" si="11">IF(E7="","",E24/E7)</f>
+        <f t="shared" ref="E41:M41" si="15">IF(E7="","",E24/E7)</f>
         <v/>
       </c>
       <c r="F41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M41" s="136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N41" s="6"/>
@@ -13372,39 +13372,39 @@
         <v>12.038886277465673</v>
       </c>
       <c r="E42" s="153" t="str">
-        <f t="shared" ref="E42:M42" si="12">IF(E26="","",E26/E30)</f>
+        <f t="shared" ref="E42:M42" si="16">IF(E26="","",E26/E30)</f>
         <v/>
       </c>
       <c r="F42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M42" s="153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N42" s="6"/>
@@ -13433,47 +13433,47 @@
         <v>218</v>
       </c>
       <c r="C44" s="152">
-        <f t="shared" ref="C44:M44" si="13">C19</f>
+        <f t="shared" ref="C44:M44" si="17">C19</f>
         <v>0.42198541969044756</v>
       </c>
       <c r="D44" s="152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.40938363357746355</v>
       </c>
       <c r="E44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M44" s="152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N44" s="6"/>
@@ -13488,43 +13488,43 @@
         <v>2.1383782899864839E-2</v>
       </c>
       <c r="D45" s="136">
-        <f>IF(D7="","",D7/D26)</f>
+        <f t="shared" ref="D45:M45" si="18">IF(D7="","",D7/D26)</f>
         <v>2.4828585488639074E-2</v>
       </c>
       <c r="E45" s="136" t="str">
-        <f>IF(E7="","",E7/E26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F45" s="136" t="str">
-        <f>IF(F7="","",F7/F26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G45" s="136" t="str">
-        <f>IF(G7="","",G7/G26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H45" s="136" t="str">
-        <f>IF(H7="","",H7/H26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I45" s="136" t="str">
-        <f>IF(I7="","",I7/I26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J45" s="136" t="str">
-        <f>IF(J7="","",J7/J26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K45" s="136" t="str">
-        <f>IF(K7="","",K7/K26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L45" s="136" t="str">
-        <f>IF(L7="","",L7/L26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M45" s="136" t="str">
-        <f>IF(M7="","",M7/M26)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N45" s="6"/>
@@ -13539,43 +13539,43 @@
         <v>12.685793458171416</v>
       </c>
       <c r="D46" s="154">
-        <f>IF(D29="","",D26/D29)</f>
+        <f t="shared" ref="D46:M46" si="19">IF(D29="","",D26/D29)</f>
         <v>12.005305698163717</v>
       </c>
       <c r="E46" s="154" t="str">
-        <f>IF(E29="","",E26/E29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F46" s="154" t="str">
-        <f>IF(F29="","",F26/F29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G46" s="154" t="str">
-        <f>IF(G29="","",G26/G29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H46" s="154" t="str">
-        <f>IF(H29="","",H26/H29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I46" s="154" t="str">
-        <f>IF(I29="","",I26/I29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J46" s="154" t="str">
-        <f>IF(J29="","",J26/J29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K46" s="154" t="str">
-        <f>IF(K29="","",K26/K29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L46" s="154" t="str">
-        <f>IF(L29="","",L26/L29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M46" s="154" t="str">
-        <f>IF(M29="","",M26/M29)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N46" s="6"/>
@@ -13594,39 +13594,39 @@
         <v>0.12202692785332533</v>
       </c>
       <c r="E47" s="136" t="str">
-        <f t="shared" ref="E47:M47" si="14">IF(E44="","",E44*E45*E46)</f>
+        <f t="shared" ref="E47:M47" si="20">IF(E44="","",E44*E45*E46)</f>
         <v/>
       </c>
       <c r="F47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M47" s="136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N47" s="6"/>
@@ -13645,39 +13645,39 @@
         <v>8.2344067085535183E-2</v>
       </c>
       <c r="E48" s="144" t="str">
-        <f t="shared" ref="E48:M48" si="15">IF(E47="","",((E24-E33)/E24)*E47)</f>
+        <f t="shared" ref="E48:M48" si="21">IF(E47="","",((E24-E33)/E24)*E47)</f>
         <v/>
       </c>
       <c r="F48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M48" s="144" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N48" s="6"/>
@@ -13713,39 +13713,39 @@
         <v>7.5722389339323223E-3</v>
       </c>
       <c r="E50" s="152">
-        <f t="shared" ref="E50:M50" si="16">IF(E28="","",E16/E28)</f>
+        <f t="shared" ref="E50:M50" si="22">IF(E28="","",E16/E28)</f>
         <v>0</v>
       </c>
       <c r="F50" s="152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G50" s="152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H50" s="152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I50" s="152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J50" s="152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K50" s="152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L50" s="152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M50" s="152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:M50">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(D50))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15964,11 +15964,11 @@
         <v>73</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="309">
+      <c r="D42" s="336">
         <f>((Dashboard!I6*Data!C4)+E37-C40-C41)</f>
         <v>3637384552</v>
       </c>
-      <c r="E42" s="309"/>
+      <c r="E42" s="336"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -17422,7 +17422,7 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="G18:G20">
-    <cfRule type="containsBlanks" dxfId="6" priority="22">
+    <cfRule type="containsBlanks" dxfId="5" priority="22">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17432,12 +17432,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H20">
-    <cfRule type="containsBlanks" dxfId="5" priority="30">
+    <cfRule type="containsBlanks" dxfId="4" priority="30">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsBlanks" dxfId="4" priority="24">
+    <cfRule type="containsBlanks" dxfId="3" priority="24">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17447,7 +17447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I20">
-    <cfRule type="containsBlanks" dxfId="3" priority="26">
+    <cfRule type="containsBlanks" dxfId="2" priority="26">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18457,10 +18457,10 @@
         <f>B3</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="E12" s="338" t="s">
+      <c r="E12" s="339" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="338"/>
+      <c r="F12" s="339"/>
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -19524,12 +19524,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="D14:G15">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F10 D8:D10">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
